--- a/Code/Results/Cases/Case_0_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_51/res_line/pl_mw.xlsx
@@ -418,13 +418,13 @@
         <v>0.05136250202475878</v>
       </c>
       <c r="D2">
-        <v>0.1012724596029599</v>
+        <v>0.101272459602967</v>
       </c>
       <c r="E2">
         <v>0.550211217308437</v>
       </c>
       <c r="F2">
-        <v>3.311421655277627</v>
+        <v>3.311421655277599</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -453,31 +453,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04080255541163069</v>
+        <v>0.04080255541200728</v>
       </c>
       <c r="D3">
         <v>0.06481271383154308</v>
       </c>
       <c r="E3">
-        <v>0.4561151944283921</v>
+        <v>0.4561151944284063</v>
       </c>
       <c r="F3">
-        <v>2.568644622412549</v>
+        <v>2.568644622412535</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.090023193022276</v>
+        <v>2.09002319302229</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>20.14635884063352</v>
+        <v>20.14635884063341</v>
       </c>
       <c r="K3">
-        <v>0.3139528021812268</v>
+        <v>0.3139528021812197</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,28 +491,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03516257946260737</v>
+        <v>0.035162579462785</v>
       </c>
       <c r="D4">
-        <v>0.04775315478759623</v>
+        <v>0.04775315478756426</v>
       </c>
       <c r="E4">
-        <v>0.4032360623240407</v>
+        <v>0.4032360623240194</v>
       </c>
       <c r="F4">
-        <v>2.18528301879131</v>
+        <v>2.185283018791353</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.777052350864651</v>
+        <v>1.777052350864693</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>18.02603961862241</v>
+        <v>18.02603961862235</v>
       </c>
       <c r="K4">
         <v>0.2757001030538788</v>
@@ -532,10 +532,10 @@
         <v>0.03301969428316909</v>
       </c>
       <c r="D5">
-        <v>0.04179193140231874</v>
+        <v>0.04179193140209847</v>
       </c>
       <c r="E5">
-        <v>0.3825950830615952</v>
+        <v>0.3825950830615525</v>
       </c>
       <c r="F5">
         <v>2.042738589180829</v>
@@ -544,16 +544,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.6607587270924</v>
+        <v>1.660758727092414</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>17.18468349832602</v>
+        <v>17.18468349832597</v>
       </c>
       <c r="K5">
-        <v>0.2608862240152732</v>
+        <v>0.2608862240153016</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,31 +567,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03267195491557828</v>
+        <v>0.03267195491535801</v>
       </c>
       <c r="D6">
-        <v>0.04085395914280099</v>
+        <v>0.04085395914271572</v>
       </c>
       <c r="E6">
-        <v>0.3792150339293556</v>
+        <v>0.3792150339293343</v>
       </c>
       <c r="F6">
-        <v>2.019789492860738</v>
+        <v>2.019789492860752</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.642040209969224</v>
+        <v>1.64204020996921</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>17.04615595147175</v>
+        <v>17.0461559514718</v>
       </c>
       <c r="K6">
-        <v>0.2584668218561106</v>
+        <v>0.2584668218561177</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,31 +605,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03513311132671504</v>
+        <v>0.03513311132672925</v>
       </c>
       <c r="D7">
-        <v>0.04766912062251194</v>
+        <v>0.04766912062251905</v>
       </c>
       <c r="E7">
-        <v>0.4029543640373063</v>
+        <v>0.402954364037285</v>
       </c>
       <c r="F7">
-        <v>2.183310180616445</v>
+        <v>2.183310180616417</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.775442523111636</v>
+        <v>1.775442523111622</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>18.01460985604479</v>
+        <v>18.01460985604473</v>
       </c>
       <c r="K7">
-        <v>0.2754974789122144</v>
+        <v>0.2754974789122215</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,31 +643,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04750484131262311</v>
+        <v>0.04750484131263022</v>
       </c>
       <c r="D8">
-        <v>0.08733926074064158</v>
+        <v>0.08733926074063447</v>
       </c>
       <c r="E8">
-        <v>0.516514788015094</v>
+        <v>0.5165147880150869</v>
       </c>
       <c r="F8">
-        <v>3.036859654853529</v>
+        <v>3.036859654853458</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.47262699593611</v>
+        <v>2.472626995936082</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>22.50861121759715</v>
+        <v>22.50861121759704</v>
       </c>
       <c r="K8">
-        <v>0.3581610537213535</v>
+        <v>0.3581610537213322</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,31 +681,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0830394786558486</v>
+        <v>0.08303947865586281</v>
       </c>
       <c r="D9">
-        <v>0.2361352076094079</v>
+        <v>0.2361352076094292</v>
       </c>
       <c r="E9">
-        <v>0.8041193695039155</v>
+        <v>0.8041193695038658</v>
       </c>
       <c r="F9">
-        <v>5.659740713638541</v>
+        <v>5.659740713638371</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.621420307069826</v>
+        <v>4.621420307069727</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>32.93306738548989</v>
+        <v>32.93306738548978</v>
       </c>
       <c r="K9">
-        <v>0.5758158340913297</v>
+        <v>0.5758158340912871</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,28 +719,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1344992503514817</v>
+        <v>0.1344992503513112</v>
       </c>
       <c r="D10">
-        <v>0.5093347555738319</v>
+        <v>0.5093347555737182</v>
       </c>
       <c r="E10">
-        <v>1.161428455837225</v>
+        <v>1.161428455837267</v>
       </c>
       <c r="F10">
-        <v>9.684090107530778</v>
+        <v>9.684090107530807</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.93215460343734</v>
+        <v>7.932154603437354</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>44.0056557798701</v>
+        <v>44.00565577987027</v>
       </c>
       <c r="K10">
         <v>0.8621070104408801</v>
@@ -757,28 +757,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1344992503514817</v>
+        <v>0.1344992503513112</v>
       </c>
       <c r="D11">
-        <v>0.5093347555738319</v>
+        <v>0.5093347555737182</v>
       </c>
       <c r="E11">
-        <v>1.161428455837225</v>
+        <v>1.161428455837267</v>
       </c>
       <c r="F11">
-        <v>9.684090107530778</v>
+        <v>9.684090107530807</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.93215460343734</v>
+        <v>7.932154603437354</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>44.0056557798701</v>
+        <v>44.00565577987027</v>
       </c>
       <c r="K11">
         <v>0.8621070104408801</v>
@@ -795,28 +795,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1344992503514817</v>
+        <v>0.1344992503513112</v>
       </c>
       <c r="D12">
-        <v>0.5093347555738319</v>
+        <v>0.5093347555737182</v>
       </c>
       <c r="E12">
-        <v>1.161428455837225</v>
+        <v>1.161428455837267</v>
       </c>
       <c r="F12">
-        <v>9.684090107530778</v>
+        <v>9.684090107530807</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.93215460343734</v>
+        <v>7.932154603437354</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>44.0056557798701</v>
+        <v>44.00565577987027</v>
       </c>
       <c r="K12">
         <v>0.8621070104408801</v>
@@ -833,28 +833,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1344992503514817</v>
+        <v>0.1344992503513112</v>
       </c>
       <c r="D13">
-        <v>0.5093347555738319</v>
+        <v>0.5093347555737182</v>
       </c>
       <c r="E13">
-        <v>1.161428455837225</v>
+        <v>1.161428455837267</v>
       </c>
       <c r="F13">
-        <v>9.684090107530778</v>
+        <v>9.684090107530807</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.93215460343734</v>
+        <v>7.932154603437354</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>44.0056557798701</v>
+        <v>44.00565577987027</v>
       </c>
       <c r="K13">
         <v>0.8621070104408801</v>
@@ -871,28 +871,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1344992503514817</v>
+        <v>0.1344992503513112</v>
       </c>
       <c r="D14">
-        <v>0.5093347555738319</v>
+        <v>0.5093347555737182</v>
       </c>
       <c r="E14">
-        <v>1.161428455837225</v>
+        <v>1.161428455837267</v>
       </c>
       <c r="F14">
-        <v>9.684090107530778</v>
+        <v>9.684090107530807</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.93215460343734</v>
+        <v>7.932154603437354</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>44.0056557798701</v>
+        <v>44.00565577987027</v>
       </c>
       <c r="K14">
         <v>0.8621070104408801</v>
@@ -909,28 +909,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1344992503514817</v>
+        <v>0.1344992503513112</v>
       </c>
       <c r="D15">
-        <v>0.5093347555738319</v>
+        <v>0.5093347555737182</v>
       </c>
       <c r="E15">
-        <v>1.161428455837225</v>
+        <v>1.161428455837267</v>
       </c>
       <c r="F15">
-        <v>9.684090107530778</v>
+        <v>9.684090107530807</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.93215460343734</v>
+        <v>7.932154603437354</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>44.0056557798701</v>
+        <v>44.00565577987027</v>
       </c>
       <c r="K15">
         <v>0.8621070104408801</v>
@@ -947,28 +947,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1344992503514817</v>
+        <v>0.1344992503513112</v>
       </c>
       <c r="D16">
-        <v>0.5093347555738319</v>
+        <v>0.5093347555737182</v>
       </c>
       <c r="E16">
-        <v>1.161428455837225</v>
+        <v>1.161428455837267</v>
       </c>
       <c r="F16">
-        <v>9.684090107530778</v>
+        <v>9.684090107530807</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.93215460343734</v>
+        <v>7.932154603437354</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>44.0056557798701</v>
+        <v>44.00565577987027</v>
       </c>
       <c r="K16">
         <v>0.8621070104408801</v>
@@ -985,28 +985,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1344992503514817</v>
+        <v>0.1344992503513112</v>
       </c>
       <c r="D17">
-        <v>0.5093347555738319</v>
+        <v>0.5093347555737182</v>
       </c>
       <c r="E17">
-        <v>1.161428455837225</v>
+        <v>1.161428455837267</v>
       </c>
       <c r="F17">
-        <v>9.684090107530778</v>
+        <v>9.684090107530807</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.93215460343734</v>
+        <v>7.932154603437354</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>44.0056557798701</v>
+        <v>44.00565577987027</v>
       </c>
       <c r="K17">
         <v>0.8621070104408801</v>
@@ -1023,28 +1023,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1344992503514817</v>
+        <v>0.1344992503513112</v>
       </c>
       <c r="D18">
-        <v>0.5093347555738319</v>
+        <v>0.5093347555737182</v>
       </c>
       <c r="E18">
-        <v>1.161428455837225</v>
+        <v>1.161428455837267</v>
       </c>
       <c r="F18">
-        <v>9.684090107530778</v>
+        <v>9.684090107530807</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.93215460343734</v>
+        <v>7.932154603437354</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>44.0056557798701</v>
+        <v>44.00565577987027</v>
       </c>
       <c r="K18">
         <v>0.8621070104408801</v>
@@ -1061,28 +1061,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1344992503514817</v>
+        <v>0.1344992503513112</v>
       </c>
       <c r="D19">
-        <v>0.5093347555738319</v>
+        <v>0.5093347555737182</v>
       </c>
       <c r="E19">
-        <v>1.161428455837225</v>
+        <v>1.161428455837267</v>
       </c>
       <c r="F19">
-        <v>9.684090107530778</v>
+        <v>9.684090107530807</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.93215460343734</v>
+        <v>7.932154603437354</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>44.0056557798701</v>
+        <v>44.00565577987027</v>
       </c>
       <c r="K19">
         <v>0.8621070104408801</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1344992503514817</v>
+        <v>0.1344992503513112</v>
       </c>
       <c r="D20">
-        <v>0.5093347555738319</v>
+        <v>0.5093347555737182</v>
       </c>
       <c r="E20">
-        <v>1.161428455837225</v>
+        <v>1.161428455837267</v>
       </c>
       <c r="F20">
-        <v>9.684090107530778</v>
+        <v>9.684090107530807</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.93215460343734</v>
+        <v>7.932154603437354</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>44.0056557798701</v>
+        <v>44.00565577987027</v>
       </c>
       <c r="K20">
         <v>0.8621070104408801</v>
@@ -1137,28 +1137,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1344992503514817</v>
+        <v>0.1344992503513112</v>
       </c>
       <c r="D21">
-        <v>0.5093347555738319</v>
+        <v>0.5093347555737182</v>
       </c>
       <c r="E21">
-        <v>1.161428455837225</v>
+        <v>1.161428455837267</v>
       </c>
       <c r="F21">
-        <v>9.684090107530778</v>
+        <v>9.684090107530807</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.93215460343734</v>
+        <v>7.932154603437354</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>44.0056557798701</v>
+        <v>44.00565577987027</v>
       </c>
       <c r="K21">
         <v>0.8621070104408801</v>
@@ -1175,28 +1175,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1344992503514817</v>
+        <v>0.1344992503513112</v>
       </c>
       <c r="D22">
-        <v>0.5093347555738319</v>
+        <v>0.5093347555737182</v>
       </c>
       <c r="E22">
-        <v>1.161428455837225</v>
+        <v>1.161428455837267</v>
       </c>
       <c r="F22">
-        <v>9.684090107530778</v>
+        <v>9.684090107530807</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.93215460343734</v>
+        <v>7.932154603437354</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>44.0056557798701</v>
+        <v>44.00565577987027</v>
       </c>
       <c r="K22">
         <v>0.8621070104408801</v>
@@ -1213,28 +1213,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1344992503514817</v>
+        <v>0.1344992503513112</v>
       </c>
       <c r="D23">
-        <v>0.5093347555738319</v>
+        <v>0.5093347555737182</v>
       </c>
       <c r="E23">
-        <v>1.161428455837225</v>
+        <v>1.161428455837267</v>
       </c>
       <c r="F23">
-        <v>9.684090107530778</v>
+        <v>9.684090107530807</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.93215460343734</v>
+        <v>7.932154603437354</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>44.0056557798701</v>
+        <v>44.00565577987027</v>
       </c>
       <c r="K23">
         <v>0.8621070104408801</v>
@@ -1251,28 +1251,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1344992503514817</v>
+        <v>0.1344992503513112</v>
       </c>
       <c r="D24">
-        <v>0.5093347555738319</v>
+        <v>0.5093347555737182</v>
       </c>
       <c r="E24">
-        <v>1.161428455837225</v>
+        <v>1.161428455837267</v>
       </c>
       <c r="F24">
-        <v>9.684090107530778</v>
+        <v>9.684090107530807</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.93215460343734</v>
+        <v>7.932154603437354</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>44.0056557798701</v>
+        <v>44.00565577987027</v>
       </c>
       <c r="K24">
         <v>0.8621070104408801</v>
@@ -1289,28 +1289,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1344992503514817</v>
+        <v>0.1344992503513112</v>
       </c>
       <c r="D25">
-        <v>0.5093347555738319</v>
+        <v>0.5093347555737182</v>
       </c>
       <c r="E25">
-        <v>1.161428455837225</v>
+        <v>1.161428455837267</v>
       </c>
       <c r="F25">
-        <v>9.684090107530778</v>
+        <v>9.684090107530807</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.93215460343734</v>
+        <v>7.932154603437354</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>44.0056557798701</v>
+        <v>44.00565577987027</v>
       </c>
       <c r="K25">
         <v>0.8621070104408801</v>

--- a/Code/Results/Cases/Case_0_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_51/res_line/pl_mw.xlsx
@@ -418,13 +418,13 @@
         <v>0.05136250202475878</v>
       </c>
       <c r="D2">
-        <v>0.101272459602967</v>
+        <v>0.1012724596029599</v>
       </c>
       <c r="E2">
         <v>0.550211217308437</v>
       </c>
       <c r="F2">
-        <v>3.311421655277599</v>
+        <v>3.311421655277627</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -453,31 +453,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04080255541200728</v>
+        <v>0.04080255541163069</v>
       </c>
       <c r="D3">
         <v>0.06481271383154308</v>
       </c>
       <c r="E3">
-        <v>0.4561151944284063</v>
+        <v>0.4561151944283921</v>
       </c>
       <c r="F3">
-        <v>2.568644622412535</v>
+        <v>2.568644622412549</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.09002319302229</v>
+        <v>2.090023193022276</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>20.14635884063341</v>
+        <v>20.14635884063352</v>
       </c>
       <c r="K3">
-        <v>0.3139528021812197</v>
+        <v>0.3139528021812268</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,28 +491,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.035162579462785</v>
+        <v>0.03516257946260737</v>
       </c>
       <c r="D4">
-        <v>0.04775315478756426</v>
+        <v>0.04775315478759623</v>
       </c>
       <c r="E4">
-        <v>0.4032360623240194</v>
+        <v>0.4032360623240407</v>
       </c>
       <c r="F4">
-        <v>2.185283018791353</v>
+        <v>2.18528301879131</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.777052350864693</v>
+        <v>1.777052350864651</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>18.02603961862235</v>
+        <v>18.02603961862241</v>
       </c>
       <c r="K4">
         <v>0.2757001030538788</v>
@@ -532,10 +532,10 @@
         <v>0.03301969428316909</v>
       </c>
       <c r="D5">
-        <v>0.04179193140209847</v>
+        <v>0.04179193140231874</v>
       </c>
       <c r="E5">
-        <v>0.3825950830615525</v>
+        <v>0.3825950830615952</v>
       </c>
       <c r="F5">
         <v>2.042738589180829</v>
@@ -544,16 +544,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.660758727092414</v>
+        <v>1.6607587270924</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>17.18468349832597</v>
+        <v>17.18468349832602</v>
       </c>
       <c r="K5">
-        <v>0.2608862240153016</v>
+        <v>0.2608862240152732</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,31 +567,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03267195491535801</v>
+        <v>0.03267195491557828</v>
       </c>
       <c r="D6">
-        <v>0.04085395914271572</v>
+        <v>0.04085395914280099</v>
       </c>
       <c r="E6">
-        <v>0.3792150339293343</v>
+        <v>0.3792150339293556</v>
       </c>
       <c r="F6">
-        <v>2.019789492860752</v>
+        <v>2.019789492860738</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.64204020996921</v>
+        <v>1.642040209969224</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>17.0461559514718</v>
+        <v>17.04615595147175</v>
       </c>
       <c r="K6">
-        <v>0.2584668218561177</v>
+        <v>0.2584668218561106</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,31 +605,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03513311132672925</v>
+        <v>0.03513311132671504</v>
       </c>
       <c r="D7">
-        <v>0.04766912062251905</v>
+        <v>0.04766912062251194</v>
       </c>
       <c r="E7">
-        <v>0.402954364037285</v>
+        <v>0.4029543640373063</v>
       </c>
       <c r="F7">
-        <v>2.183310180616417</v>
+        <v>2.183310180616445</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.775442523111622</v>
+        <v>1.775442523111636</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>18.01460985604473</v>
+        <v>18.01460985604479</v>
       </c>
       <c r="K7">
-        <v>0.2754974789122215</v>
+        <v>0.2754974789122144</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,31 +643,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04750484131263022</v>
+        <v>0.04750484131262311</v>
       </c>
       <c r="D8">
-        <v>0.08733926074063447</v>
+        <v>0.08733926074064158</v>
       </c>
       <c r="E8">
-        <v>0.5165147880150869</v>
+        <v>0.516514788015094</v>
       </c>
       <c r="F8">
-        <v>3.036859654853458</v>
+        <v>3.036859654853529</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.472626995936082</v>
+        <v>2.47262699593611</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>22.50861121759704</v>
+        <v>22.50861121759715</v>
       </c>
       <c r="K8">
-        <v>0.3581610537213322</v>
+        <v>0.3581610537213535</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,31 +681,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.08303947865586281</v>
+        <v>0.0830394786558486</v>
       </c>
       <c r="D9">
-        <v>0.2361352076094292</v>
+        <v>0.2361352076094079</v>
       </c>
       <c r="E9">
-        <v>0.8041193695038658</v>
+        <v>0.8041193695039155</v>
       </c>
       <c r="F9">
-        <v>5.659740713638371</v>
+        <v>5.659740713638541</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.621420307069727</v>
+        <v>4.621420307069826</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>32.93306738548978</v>
+        <v>32.93306738548989</v>
       </c>
       <c r="K9">
-        <v>0.5758158340912871</v>
+        <v>0.5758158340913297</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,28 +719,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1344992503513112</v>
+        <v>0.1344992503514817</v>
       </c>
       <c r="D10">
-        <v>0.5093347555737182</v>
+        <v>0.5093347555738319</v>
       </c>
       <c r="E10">
-        <v>1.161428455837267</v>
+        <v>1.161428455837225</v>
       </c>
       <c r="F10">
-        <v>9.684090107530807</v>
+        <v>9.684090107530778</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.932154603437354</v>
+        <v>7.93215460343734</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>44.00565577987027</v>
+        <v>44.0056557798701</v>
       </c>
       <c r="K10">
         <v>0.8621070104408801</v>
@@ -757,28 +757,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1344992503513112</v>
+        <v>0.1344992503514817</v>
       </c>
       <c r="D11">
-        <v>0.5093347555737182</v>
+        <v>0.5093347555738319</v>
       </c>
       <c r="E11">
-        <v>1.161428455837267</v>
+        <v>1.161428455837225</v>
       </c>
       <c r="F11">
-        <v>9.684090107530807</v>
+        <v>9.684090107530778</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.932154603437354</v>
+        <v>7.93215460343734</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>44.00565577987027</v>
+        <v>44.0056557798701</v>
       </c>
       <c r="K11">
         <v>0.8621070104408801</v>
@@ -795,28 +795,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1344992503513112</v>
+        <v>0.1344992503514817</v>
       </c>
       <c r="D12">
-        <v>0.5093347555737182</v>
+        <v>0.5093347555738319</v>
       </c>
       <c r="E12">
-        <v>1.161428455837267</v>
+        <v>1.161428455837225</v>
       </c>
       <c r="F12">
-        <v>9.684090107530807</v>
+        <v>9.684090107530778</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.932154603437354</v>
+        <v>7.93215460343734</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>44.00565577987027</v>
+        <v>44.0056557798701</v>
       </c>
       <c r="K12">
         <v>0.8621070104408801</v>
@@ -833,28 +833,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1344992503513112</v>
+        <v>0.1344992503514817</v>
       </c>
       <c r="D13">
-        <v>0.5093347555737182</v>
+        <v>0.5093347555738319</v>
       </c>
       <c r="E13">
-        <v>1.161428455837267</v>
+        <v>1.161428455837225</v>
       </c>
       <c r="F13">
-        <v>9.684090107530807</v>
+        <v>9.684090107530778</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.932154603437354</v>
+        <v>7.93215460343734</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>44.00565577987027</v>
+        <v>44.0056557798701</v>
       </c>
       <c r="K13">
         <v>0.8621070104408801</v>
@@ -871,28 +871,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1344992503513112</v>
+        <v>0.1344992503514817</v>
       </c>
       <c r="D14">
-        <v>0.5093347555737182</v>
+        <v>0.5093347555738319</v>
       </c>
       <c r="E14">
-        <v>1.161428455837267</v>
+        <v>1.161428455837225</v>
       </c>
       <c r="F14">
-        <v>9.684090107530807</v>
+        <v>9.684090107530778</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.932154603437354</v>
+        <v>7.93215460343734</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>44.00565577987027</v>
+        <v>44.0056557798701</v>
       </c>
       <c r="K14">
         <v>0.8621070104408801</v>
@@ -909,28 +909,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1344992503513112</v>
+        <v>0.1344992503514817</v>
       </c>
       <c r="D15">
-        <v>0.5093347555737182</v>
+        <v>0.5093347555738319</v>
       </c>
       <c r="E15">
-        <v>1.161428455837267</v>
+        <v>1.161428455837225</v>
       </c>
       <c r="F15">
-        <v>9.684090107530807</v>
+        <v>9.684090107530778</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.932154603437354</v>
+        <v>7.93215460343734</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>44.00565577987027</v>
+        <v>44.0056557798701</v>
       </c>
       <c r="K15">
         <v>0.8621070104408801</v>
@@ -947,28 +947,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1344992503513112</v>
+        <v>0.1344992503514817</v>
       </c>
       <c r="D16">
-        <v>0.5093347555737182</v>
+        <v>0.5093347555738319</v>
       </c>
       <c r="E16">
-        <v>1.161428455837267</v>
+        <v>1.161428455837225</v>
       </c>
       <c r="F16">
-        <v>9.684090107530807</v>
+        <v>9.684090107530778</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.932154603437354</v>
+        <v>7.93215460343734</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>44.00565577987027</v>
+        <v>44.0056557798701</v>
       </c>
       <c r="K16">
         <v>0.8621070104408801</v>
@@ -985,28 +985,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1344992503513112</v>
+        <v>0.1344992503514817</v>
       </c>
       <c r="D17">
-        <v>0.5093347555737182</v>
+        <v>0.5093347555738319</v>
       </c>
       <c r="E17">
-        <v>1.161428455837267</v>
+        <v>1.161428455837225</v>
       </c>
       <c r="F17">
-        <v>9.684090107530807</v>
+        <v>9.684090107530778</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.932154603437354</v>
+        <v>7.93215460343734</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>44.00565577987027</v>
+        <v>44.0056557798701</v>
       </c>
       <c r="K17">
         <v>0.8621070104408801</v>
@@ -1023,28 +1023,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1344992503513112</v>
+        <v>0.1344992503514817</v>
       </c>
       <c r="D18">
-        <v>0.5093347555737182</v>
+        <v>0.5093347555738319</v>
       </c>
       <c r="E18">
-        <v>1.161428455837267</v>
+        <v>1.161428455837225</v>
       </c>
       <c r="F18">
-        <v>9.684090107530807</v>
+        <v>9.684090107530778</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.932154603437354</v>
+        <v>7.93215460343734</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>44.00565577987027</v>
+        <v>44.0056557798701</v>
       </c>
       <c r="K18">
         <v>0.8621070104408801</v>
@@ -1061,28 +1061,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1344992503513112</v>
+        <v>0.1344992503514817</v>
       </c>
       <c r="D19">
-        <v>0.5093347555737182</v>
+        <v>0.5093347555738319</v>
       </c>
       <c r="E19">
-        <v>1.161428455837267</v>
+        <v>1.161428455837225</v>
       </c>
       <c r="F19">
-        <v>9.684090107530807</v>
+        <v>9.684090107530778</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.932154603437354</v>
+        <v>7.93215460343734</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>44.00565577987027</v>
+        <v>44.0056557798701</v>
       </c>
       <c r="K19">
         <v>0.8621070104408801</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1344992503513112</v>
+        <v>0.1344992503514817</v>
       </c>
       <c r="D20">
-        <v>0.5093347555737182</v>
+        <v>0.5093347555738319</v>
       </c>
       <c r="E20">
-        <v>1.161428455837267</v>
+        <v>1.161428455837225</v>
       </c>
       <c r="F20">
-        <v>9.684090107530807</v>
+        <v>9.684090107530778</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.932154603437354</v>
+        <v>7.93215460343734</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>44.00565577987027</v>
+        <v>44.0056557798701</v>
       </c>
       <c r="K20">
         <v>0.8621070104408801</v>
@@ -1137,28 +1137,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1344992503513112</v>
+        <v>0.1344992503514817</v>
       </c>
       <c r="D21">
-        <v>0.5093347555737182</v>
+        <v>0.5093347555738319</v>
       </c>
       <c r="E21">
-        <v>1.161428455837267</v>
+        <v>1.161428455837225</v>
       </c>
       <c r="F21">
-        <v>9.684090107530807</v>
+        <v>9.684090107530778</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.932154603437354</v>
+        <v>7.93215460343734</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>44.00565577987027</v>
+        <v>44.0056557798701</v>
       </c>
       <c r="K21">
         <v>0.8621070104408801</v>
@@ -1175,28 +1175,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1344992503513112</v>
+        <v>0.1344992503514817</v>
       </c>
       <c r="D22">
-        <v>0.5093347555737182</v>
+        <v>0.5093347555738319</v>
       </c>
       <c r="E22">
-        <v>1.161428455837267</v>
+        <v>1.161428455837225</v>
       </c>
       <c r="F22">
-        <v>9.684090107530807</v>
+        <v>9.684090107530778</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.932154603437354</v>
+        <v>7.93215460343734</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>44.00565577987027</v>
+        <v>44.0056557798701</v>
       </c>
       <c r="K22">
         <v>0.8621070104408801</v>
@@ -1213,28 +1213,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1344992503513112</v>
+        <v>0.1344992503514817</v>
       </c>
       <c r="D23">
-        <v>0.5093347555737182</v>
+        <v>0.5093347555738319</v>
       </c>
       <c r="E23">
-        <v>1.161428455837267</v>
+        <v>1.161428455837225</v>
       </c>
       <c r="F23">
-        <v>9.684090107530807</v>
+        <v>9.684090107530778</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.932154603437354</v>
+        <v>7.93215460343734</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>44.00565577987027</v>
+        <v>44.0056557798701</v>
       </c>
       <c r="K23">
         <v>0.8621070104408801</v>
@@ -1251,28 +1251,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1344992503513112</v>
+        <v>0.1344992503514817</v>
       </c>
       <c r="D24">
-        <v>0.5093347555737182</v>
+        <v>0.5093347555738319</v>
       </c>
       <c r="E24">
-        <v>1.161428455837267</v>
+        <v>1.161428455837225</v>
       </c>
       <c r="F24">
-        <v>9.684090107530807</v>
+        <v>9.684090107530778</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.932154603437354</v>
+        <v>7.93215460343734</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>44.00565577987027</v>
+        <v>44.0056557798701</v>
       </c>
       <c r="K24">
         <v>0.8621070104408801</v>
@@ -1289,28 +1289,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1344992503513112</v>
+        <v>0.1344992503514817</v>
       </c>
       <c r="D25">
-        <v>0.5093347555737182</v>
+        <v>0.5093347555738319</v>
       </c>
       <c r="E25">
-        <v>1.161428455837267</v>
+        <v>1.161428455837225</v>
       </c>
       <c r="F25">
-        <v>9.684090107530807</v>
+        <v>9.684090107530778</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.932154603437354</v>
+        <v>7.93215460343734</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>44.00565577987027</v>
+        <v>44.0056557798701</v>
       </c>
       <c r="K25">
         <v>0.8621070104408801</v>

--- a/Code/Results/Cases/Case_0_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_51/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.05136250202475878</v>
+        <v>0.04876158232507777</v>
       </c>
       <c r="D2">
-        <v>0.1012724596029599</v>
+        <v>0.09281522735868464</v>
       </c>
       <c r="E2">
-        <v>0.550211217308437</v>
+        <v>0.545598905390527</v>
       </c>
       <c r="F2">
-        <v>3.311421655277627</v>
+        <v>3.230160470394026</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0006355575790106534</v>
       </c>
       <c r="H2">
-        <v>2.69714856461465</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.630450583977051</v>
       </c>
       <c r="J2">
-        <v>23.79969308764169</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3830570435308474</v>
+        <v>23.65630621161466</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.3790995703577167</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04080255541163069</v>
+        <v>0.03867262022826168</v>
       </c>
       <c r="D3">
-        <v>0.06481271383154308</v>
+        <v>0.05857154606196602</v>
       </c>
       <c r="E3">
-        <v>0.4561151944283921</v>
+        <v>0.4525620825788081</v>
       </c>
       <c r="F3">
-        <v>2.568644622412549</v>
+        <v>2.511234493367922</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.000663930188605978</v>
       </c>
       <c r="H3">
-        <v>2.090023193022276</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.042930831837197</v>
       </c>
       <c r="J3">
-        <v>20.14635884063352</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3139528021812268</v>
+        <v>20.03355873723859</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.3109593591978879</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03516257946260737</v>
+        <v>0.03329708073362525</v>
       </c>
       <c r="D4">
-        <v>0.04775315478759623</v>
+        <v>0.04271707244979339</v>
       </c>
       <c r="E4">
-        <v>0.4032360623240407</v>
+        <v>0.4002109959290436</v>
       </c>
       <c r="F4">
-        <v>2.18528301879131</v>
+        <v>2.140632687362327</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0006807208526133923</v>
       </c>
       <c r="H4">
-        <v>1.777052350864651</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.740439244880818</v>
       </c>
       <c r="J4">
-        <v>18.02603961862241</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2757001030538788</v>
+        <v>17.92922788669551</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.2731907878420046</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03301969428316909</v>
+        <v>0.03125795842895229</v>
       </c>
       <c r="D5">
-        <v>0.04179193140231874</v>
+        <v>0.03722178359716821</v>
       </c>
       <c r="E5">
-        <v>0.3825950830615952</v>
+        <v>0.3797647699540292</v>
       </c>
       <c r="F5">
-        <v>2.042738589180829</v>
+        <v>2.002980399023016</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0006874681591751195</v>
       </c>
       <c r="H5">
-        <v>1.6607587270924</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.62816162949818</v>
       </c>
       <c r="J5">
-        <v>17.18468349832602</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2608862240152732</v>
+        <v>17.0939206015384</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.2585562976033202</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03267195491557828</v>
+        <v>0.03092725506303395</v>
       </c>
       <c r="D6">
-        <v>0.04085395914280099</v>
+        <v>0.03635995656953028</v>
       </c>
       <c r="E6">
-        <v>0.3792150339293556</v>
+        <v>0.3764160410228854</v>
       </c>
       <c r="F6">
-        <v>2.019789492860738</v>
+        <v>1.980828580931941</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0006885842798280941</v>
       </c>
       <c r="H6">
-        <v>1.642040209969224</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.610097512621849</v>
       </c>
       <c r="J6">
-        <v>17.04615595147175</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2584668218561106</v>
+        <v>16.95637425069208</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.2561657941470799</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03513311132671504</v>
+        <v>0.03326902591457781</v>
       </c>
       <c r="D7">
-        <v>0.04766912062251194</v>
+        <v>0.04263940987367221</v>
       </c>
       <c r="E7">
-        <v>0.4029543640373063</v>
+        <v>0.399931996668883</v>
       </c>
       <c r="F7">
-        <v>2.183310180616445</v>
+        <v>2.138726905366212</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0006808121650233537</v>
       </c>
       <c r="H7">
-        <v>1.775442523111636</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.738884470882581</v>
       </c>
       <c r="J7">
-        <v>18.01460985604479</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2754974789122144</v>
+        <v>17.91788135487531</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.2729906463616132</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04750484131262311</v>
+        <v>0.04507317008408762</v>
       </c>
       <c r="D8">
-        <v>0.08733926074064158</v>
+        <v>0.07968927576825635</v>
       </c>
       <c r="E8">
-        <v>0.516514788015094</v>
+        <v>0.5123011767702366</v>
       </c>
       <c r="F8">
-        <v>3.036859654853529</v>
+        <v>2.964342876410939</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0006455172182082919</v>
       </c>
       <c r="H8">
-        <v>2.47262699593611</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.413119520919025</v>
       </c>
       <c r="J8">
-        <v>22.50861121759715</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3581610537213535</v>
+        <v>22.37653350584162</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.3545655724554564</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0830394786558486</v>
+        <v>0.07907719509287148</v>
       </c>
       <c r="D9">
-        <v>0.2361352076094079</v>
+        <v>0.2206862546499764</v>
       </c>
       <c r="E9">
-        <v>0.8041193695039155</v>
+        <v>0.7955078855844917</v>
       </c>
       <c r="F9">
-        <v>5.659740713638541</v>
+        <v>5.500460480129675</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0005663164783722973</v>
       </c>
       <c r="H9">
-        <v>4.621420307069826</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>4.490449202554601</v>
       </c>
       <c r="J9">
-        <v>32.93306738548989</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5758158340913297</v>
+        <v>32.68533095174524</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.5682587292224923</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1344992503514817</v>
+        <v>0.1276441497036629</v>
       </c>
       <c r="D10">
-        <v>0.5093347555738319</v>
+        <v>0.4763454834662681</v>
       </c>
       <c r="E10">
-        <v>1.161428455837225</v>
+        <v>1.140083891693649</v>
       </c>
       <c r="F10">
-        <v>9.684090107530778</v>
+        <v>9.319400007358041</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.000482946907554016</v>
       </c>
       <c r="H10">
-        <v>7.93215460343734</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>7.631327449424887</v>
       </c>
       <c r="J10">
-        <v>44.0056557798701</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8621070104408801</v>
+        <v>43.47090265263404</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.8432071590358134</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1344992503514817</v>
+        <v>0.1276441497036629</v>
       </c>
       <c r="D11">
-        <v>0.5093347555738319</v>
+        <v>0.4763454834662681</v>
       </c>
       <c r="E11">
-        <v>1.161428455837225</v>
+        <v>1.140083891693649</v>
       </c>
       <c r="F11">
-        <v>9.684090107530778</v>
+        <v>9.319400007358041</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.000482946907554016</v>
       </c>
       <c r="H11">
-        <v>7.93215460343734</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>7.631327449424887</v>
       </c>
       <c r="J11">
-        <v>44.0056557798701</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8621070104408801</v>
+        <v>43.47090265263404</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.8432071590358134</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1344992503514817</v>
+        <v>0.1276441497036629</v>
       </c>
       <c r="D12">
-        <v>0.5093347555738319</v>
+        <v>0.4763454834662681</v>
       </c>
       <c r="E12">
-        <v>1.161428455837225</v>
+        <v>1.140083891693649</v>
       </c>
       <c r="F12">
-        <v>9.684090107530778</v>
+        <v>9.319400007358041</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.000482946907554016</v>
       </c>
       <c r="H12">
-        <v>7.93215460343734</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>7.631327449424887</v>
       </c>
       <c r="J12">
-        <v>44.0056557798701</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.8621070104408801</v>
+        <v>43.47090265263404</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.8432071590358134</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1344992503514817</v>
+        <v>0.1276441497036629</v>
       </c>
       <c r="D13">
-        <v>0.5093347555738319</v>
+        <v>0.4763454834662681</v>
       </c>
       <c r="E13">
-        <v>1.161428455837225</v>
+        <v>1.140083891693649</v>
       </c>
       <c r="F13">
-        <v>9.684090107530778</v>
+        <v>9.319400007358041</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.000482946907554016</v>
       </c>
       <c r="H13">
-        <v>7.93215460343734</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>7.631327449424887</v>
       </c>
       <c r="J13">
-        <v>44.0056557798701</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8621070104408801</v>
+        <v>43.47090265263404</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.8432071590358134</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1344992503514817</v>
+        <v>0.1276441497036629</v>
       </c>
       <c r="D14">
-        <v>0.5093347555738319</v>
+        <v>0.4763454834662681</v>
       </c>
       <c r="E14">
-        <v>1.161428455837225</v>
+        <v>1.140083891693649</v>
       </c>
       <c r="F14">
-        <v>9.684090107530778</v>
+        <v>9.319400007358041</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.000482946907554016</v>
       </c>
       <c r="H14">
-        <v>7.93215460343734</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>7.631327449424887</v>
       </c>
       <c r="J14">
-        <v>44.0056557798701</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8621070104408801</v>
+        <v>43.47090265263404</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.8432071590358134</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1344992503514817</v>
+        <v>0.1276441497036629</v>
       </c>
       <c r="D15">
-        <v>0.5093347555738319</v>
+        <v>0.4763454834662681</v>
       </c>
       <c r="E15">
-        <v>1.161428455837225</v>
+        <v>1.140083891693649</v>
       </c>
       <c r="F15">
-        <v>9.684090107530778</v>
+        <v>9.319400007358041</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.000482946907554016</v>
       </c>
       <c r="H15">
-        <v>7.93215460343734</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>7.631327449424887</v>
       </c>
       <c r="J15">
-        <v>44.0056557798701</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8621070104408801</v>
+        <v>43.47090265263404</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.8432071590358134</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1344992503514817</v>
+        <v>0.1276441497036629</v>
       </c>
       <c r="D16">
-        <v>0.5093347555738319</v>
+        <v>0.4763454834662681</v>
       </c>
       <c r="E16">
-        <v>1.161428455837225</v>
+        <v>1.140083891693649</v>
       </c>
       <c r="F16">
-        <v>9.684090107530778</v>
+        <v>9.319400007358041</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.000482946907554016</v>
       </c>
       <c r="H16">
-        <v>7.93215460343734</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>7.631327449424887</v>
       </c>
       <c r="J16">
-        <v>44.0056557798701</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8621070104408801</v>
+        <v>43.47090265263404</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.8432071590358134</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1344992503514817</v>
+        <v>0.1276441497036629</v>
       </c>
       <c r="D17">
-        <v>0.5093347555738319</v>
+        <v>0.4763454834662681</v>
       </c>
       <c r="E17">
-        <v>1.161428455837225</v>
+        <v>1.140083891693649</v>
       </c>
       <c r="F17">
-        <v>9.684090107530778</v>
+        <v>9.319400007358041</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.000482946907554016</v>
       </c>
       <c r="H17">
-        <v>7.93215460343734</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>7.631327449424887</v>
       </c>
       <c r="J17">
-        <v>44.0056557798701</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8621070104408801</v>
+        <v>43.47090265263404</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.8432071590358134</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1344992503514817</v>
+        <v>0.1276441497036629</v>
       </c>
       <c r="D18">
-        <v>0.5093347555738319</v>
+        <v>0.4763454834662681</v>
       </c>
       <c r="E18">
-        <v>1.161428455837225</v>
+        <v>1.140083891693649</v>
       </c>
       <c r="F18">
-        <v>9.684090107530778</v>
+        <v>9.319400007358041</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.000482946907554016</v>
       </c>
       <c r="H18">
-        <v>7.93215460343734</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>7.631327449424887</v>
       </c>
       <c r="J18">
-        <v>44.0056557798701</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8621070104408801</v>
+        <v>43.47090265263404</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.8432071590358134</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1344992503514817</v>
+        <v>0.1276441497036629</v>
       </c>
       <c r="D19">
-        <v>0.5093347555738319</v>
+        <v>0.4763454834662681</v>
       </c>
       <c r="E19">
-        <v>1.161428455837225</v>
+        <v>1.140083891693649</v>
       </c>
       <c r="F19">
-        <v>9.684090107530778</v>
+        <v>9.319400007358041</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.000482946907554016</v>
       </c>
       <c r="H19">
-        <v>7.93215460343734</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>7.631327449424887</v>
       </c>
       <c r="J19">
-        <v>44.0056557798701</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8621070104408801</v>
+        <v>43.47090265263404</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.8432071590358134</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1344992503514817</v>
+        <v>0.1276441497036629</v>
       </c>
       <c r="D20">
-        <v>0.5093347555738319</v>
+        <v>0.4763454834662681</v>
       </c>
       <c r="E20">
-        <v>1.161428455837225</v>
+        <v>1.140083891693649</v>
       </c>
       <c r="F20">
-        <v>9.684090107530778</v>
+        <v>9.319400007358041</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.000482946907554016</v>
       </c>
       <c r="H20">
-        <v>7.93215460343734</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>7.631327449424887</v>
       </c>
       <c r="J20">
-        <v>44.0056557798701</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8621070104408801</v>
+        <v>43.47090265263404</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.8432071590358134</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1344992503514817</v>
+        <v>0.1276441497036629</v>
       </c>
       <c r="D21">
-        <v>0.5093347555738319</v>
+        <v>0.4763454834662681</v>
       </c>
       <c r="E21">
-        <v>1.161428455837225</v>
+        <v>1.140083891693649</v>
       </c>
       <c r="F21">
-        <v>9.684090107530778</v>
+        <v>9.319400007358041</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.000482946907554016</v>
       </c>
       <c r="H21">
-        <v>7.93215460343734</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>7.631327449424887</v>
       </c>
       <c r="J21">
-        <v>44.0056557798701</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8621070104408801</v>
+        <v>43.47090265263404</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.8432071590358134</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1344992503514817</v>
+        <v>0.1276441497036629</v>
       </c>
       <c r="D22">
-        <v>0.5093347555738319</v>
+        <v>0.4763454834662681</v>
       </c>
       <c r="E22">
-        <v>1.161428455837225</v>
+        <v>1.140083891693649</v>
       </c>
       <c r="F22">
-        <v>9.684090107530778</v>
+        <v>9.319400007358041</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.000482946907554016</v>
       </c>
       <c r="H22">
-        <v>7.93215460343734</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>7.631327449424887</v>
       </c>
       <c r="J22">
-        <v>44.0056557798701</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.8621070104408801</v>
+        <v>43.47090265263404</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.8432071590358134</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1344992503514817</v>
+        <v>0.1276441497036629</v>
       </c>
       <c r="D23">
-        <v>0.5093347555738319</v>
+        <v>0.4763454834662681</v>
       </c>
       <c r="E23">
-        <v>1.161428455837225</v>
+        <v>1.140083891693649</v>
       </c>
       <c r="F23">
-        <v>9.684090107530778</v>
+        <v>9.319400007358041</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.000482946907554016</v>
       </c>
       <c r="H23">
-        <v>7.93215460343734</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>7.631327449424887</v>
       </c>
       <c r="J23">
-        <v>44.0056557798701</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.8621070104408801</v>
+        <v>43.47090265263404</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.8432071590358134</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1344992503514817</v>
+        <v>0.1276441497036629</v>
       </c>
       <c r="D24">
-        <v>0.5093347555738319</v>
+        <v>0.4763454834662681</v>
       </c>
       <c r="E24">
-        <v>1.161428455837225</v>
+        <v>1.140083891693649</v>
       </c>
       <c r="F24">
-        <v>9.684090107530778</v>
+        <v>9.319400007358041</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.000482946907554016</v>
       </c>
       <c r="H24">
-        <v>7.93215460343734</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>7.631327449424887</v>
       </c>
       <c r="J24">
-        <v>44.0056557798701</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8621070104408801</v>
+        <v>43.47090265263404</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.8432071590358134</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,33 +1361,36 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1344992503514817</v>
+        <v>0.1276441497036629</v>
       </c>
       <c r="D25">
-        <v>0.5093347555738319</v>
+        <v>0.4763454834662681</v>
       </c>
       <c r="E25">
-        <v>1.161428455837225</v>
+        <v>1.140083891693649</v>
       </c>
       <c r="F25">
-        <v>9.684090107530778</v>
+        <v>9.319400007358041</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.000482946907554016</v>
       </c>
       <c r="H25">
-        <v>7.93215460343734</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>7.631327449424887</v>
       </c>
       <c r="J25">
-        <v>44.0056557798701</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8621070104408801</v>
+        <v>43.47090265263404</v>
       </c>
       <c r="L25">
+        <v>0.8432071590358134</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_51/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04876158232507777</v>
+        <v>0.1789439292517301</v>
       </c>
       <c r="D2">
-        <v>0.09281522735868464</v>
+        <v>0.4834935937648481</v>
       </c>
       <c r="E2">
-        <v>0.545598905390527</v>
+        <v>0.1149868547193904</v>
       </c>
       <c r="F2">
-        <v>3.230160470394026</v>
+        <v>8.926239276485205</v>
       </c>
       <c r="G2">
-        <v>0.0006355575790106534</v>
+        <v>0.0006412924500911577</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.630450583977051</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>23.65630621161466</v>
+        <v>8.792036000669896</v>
       </c>
       <c r="L2">
-        <v>0.3790995703577167</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>4.827949305391812</v>
+      </c>
+      <c r="N2">
+        <v>0.2717205907408946</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03867262022826168</v>
+        <v>0.1486354653534789</v>
       </c>
       <c r="D3">
-        <v>0.05857154606196602</v>
+        <v>0.3981234036818222</v>
       </c>
       <c r="E3">
-        <v>0.4525620825788081</v>
+        <v>0.0971692972958671</v>
       </c>
       <c r="F3">
-        <v>2.511234493367922</v>
+        <v>7.41430852449713</v>
       </c>
       <c r="G3">
-        <v>0.000663930188605978</v>
+        <v>0.0006696212605052931</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.042930831837197</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>20.03355873723859</v>
+        <v>7.351578911687312</v>
       </c>
       <c r="L3">
-        <v>0.3109593591978879</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>4.036754358134232</v>
+      </c>
+      <c r="N3">
+        <v>0.3469541095699231</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03329708073362525</v>
+        <v>0.1314721976339257</v>
       </c>
       <c r="D4">
-        <v>0.04271707244979339</v>
+        <v>0.35135770562934</v>
       </c>
       <c r="E4">
-        <v>0.4002109959290436</v>
+        <v>0.08697679963041693</v>
       </c>
       <c r="F4">
-        <v>2.140632687362327</v>
+        <v>6.572214610752638</v>
       </c>
       <c r="G4">
-        <v>0.0006807208526133923</v>
+        <v>0.0006865391442190116</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.740439244880818</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>17.92922788669551</v>
+        <v>6.528313071224886</v>
       </c>
       <c r="L4">
-        <v>0.2731907878420046</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>3.584910162052779</v>
+      </c>
+      <c r="N4">
+        <v>0.3951952647237942</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03125795842895229</v>
+        <v>0.1247514787406629</v>
       </c>
       <c r="D5">
-        <v>0.03722178359716821</v>
+        <v>0.3333754029352889</v>
       </c>
       <c r="E5">
-        <v>0.3797647699540292</v>
+        <v>0.08295882078923711</v>
       </c>
       <c r="F5">
-        <v>2.002980399023016</v>
+        <v>6.24551295164278</v>
       </c>
       <c r="G5">
-        <v>0.0006874681591751195</v>
+        <v>0.0006933684199282776</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.62816162949818</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.0939206015384</v>
+        <v>6.204370312479938</v>
       </c>
       <c r="L5">
-        <v>0.2585562976033202</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3.407212357401249</v>
+      </c>
+      <c r="N5">
+        <v>0.4153091881037234</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03092725506303395</v>
+        <v>0.1236498993280861</v>
       </c>
       <c r="D6">
-        <v>0.03635995656953028</v>
+        <v>0.3304462708691318</v>
       </c>
       <c r="E6">
-        <v>0.3764160410228854</v>
+        <v>0.08229862175914704</v>
       </c>
       <c r="F6">
-        <v>1.980828580931941</v>
+        <v>6.192135342605582</v>
       </c>
       <c r="G6">
-        <v>0.0006885842798280941</v>
+        <v>0.0006944997883211168</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.610097512621849</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.95637425069208</v>
+        <v>6.151186706426103</v>
       </c>
       <c r="L6">
-        <v>0.2561657941470799</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3.378044570461867</v>
+      </c>
+      <c r="N6">
+        <v>0.4186751897129479</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03326902591457781</v>
+        <v>0.1313805515304125</v>
       </c>
       <c r="D7">
-        <v>0.04263940987367221</v>
+        <v>0.3511112156048171</v>
       </c>
       <c r="E7">
-        <v>0.399931996668883</v>
+        <v>0.08692211923670712</v>
       </c>
       <c r="F7">
-        <v>2.138726905366212</v>
+        <v>6.567747696545098</v>
       </c>
       <c r="G7">
-        <v>0.0006808121650233537</v>
+        <v>0.000686631448802732</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.738884470882581</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>17.91788135487531</v>
+        <v>6.523901737220143</v>
       </c>
       <c r="L7">
-        <v>0.2729906463616132</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3.58248993901617</v>
+      </c>
+      <c r="N7">
+        <v>0.3954647499376289</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04507317008408762</v>
+        <v>0.1681287559763689</v>
       </c>
       <c r="D8">
-        <v>0.07968927576825635</v>
+        <v>0.452636088019716</v>
       </c>
       <c r="E8">
-        <v>0.5123011767702366</v>
+        <v>0.1086499058272459</v>
       </c>
       <c r="F8">
-        <v>2.964342876410939</v>
+        <v>8.383281582475348</v>
       </c>
       <c r="G8">
-        <v>0.0006455172182082919</v>
+        <v>0.0006511983163140742</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.413119520919025</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>22.37653350584162</v>
+        <v>8.279917009662654</v>
       </c>
       <c r="L8">
-        <v>0.3545655724554564</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>4.546592481204897</v>
+      </c>
+      <c r="N8">
+        <v>0.2971933487277347</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.07907719509287148</v>
+        <v>0.2584607413162416</v>
       </c>
       <c r="D9">
-        <v>0.2206862546499764</v>
+        <v>0.7229007426925875</v>
       </c>
       <c r="E9">
-        <v>0.7955078855844917</v>
+        <v>0.1613894792516888</v>
       </c>
       <c r="F9">
-        <v>5.500460480129675</v>
+        <v>13.02145650051574</v>
       </c>
       <c r="G9">
-        <v>0.0005663164783722973</v>
+        <v>0.0005738085959661886</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>4.490449202554601</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>32.68533095174524</v>
+        <v>12.49809030454767</v>
       </c>
       <c r="L9">
-        <v>0.5682587292224923</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>6.864250104055799</v>
+      </c>
+      <c r="N9">
+        <v>0.1252371283524276</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1276441497036629</v>
+        <v>0.3586385749241856</v>
       </c>
       <c r="D10">
-        <v>0.4763454834662681</v>
+        <v>1.054183628478285</v>
       </c>
       <c r="E10">
-        <v>1.140083891693649</v>
+        <v>0.2217768466461187</v>
       </c>
       <c r="F10">
-        <v>9.319400007358041</v>
+        <v>18.40100248779214</v>
       </c>
       <c r="G10">
-        <v>0.000482946907554016</v>
+        <v>0.0004983293301268765</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>7.631327449424887</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>43.47090265263404</v>
+        <v>17.03534092705897</v>
       </c>
       <c r="L10">
-        <v>0.8432071590358134</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>9.348887627205244</v>
+      </c>
+      <c r="N10">
+        <v>0.02665400810676921</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1276441497036629</v>
+        <v>0.4381836621675461</v>
       </c>
       <c r="D11">
-        <v>0.4763454834662681</v>
+        <v>1.340887778020118</v>
       </c>
       <c r="E11">
-        <v>1.140083891693649</v>
+        <v>0.2745076546611145</v>
       </c>
       <c r="F11">
-        <v>9.319400007358041</v>
+        <v>22.82260741922988</v>
       </c>
       <c r="G11">
-        <v>0.000482946907554016</v>
+        <v>0.0004436622441406237</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>7.631327449424887</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>43.47090265263404</v>
+        <v>20.54839899164872</v>
       </c>
       <c r="L11">
-        <v>0.8432071590358134</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>11.25463125223416</v>
+      </c>
+      <c r="N11">
+        <v>0.005590912098190515</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1276441497036629</v>
+        <v>0.5063208936193035</v>
       </c>
       <c r="D12">
-        <v>0.4763454834662681</v>
+        <v>1.604663616120575</v>
       </c>
       <c r="E12">
-        <v>1.140083891693649</v>
+        <v>0.3263166719589563</v>
       </c>
       <c r="F12">
-        <v>9.319400007358041</v>
+        <v>26.70743117890549</v>
       </c>
       <c r="G12">
-        <v>0.000482946907554016</v>
+        <v>0.0003996642880387896</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>7.631327449424887</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>43.47090265263404</v>
+        <v>23.50500073095463</v>
       </c>
       <c r="L12">
-        <v>0.8432071590358134</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>12.83502280921269</v>
+      </c>
+      <c r="N12">
+        <v>0.02309279127192809</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1276441497036629</v>
+        <v>0.4831034851748228</v>
       </c>
       <c r="D13">
-        <v>0.4763454834662681</v>
+        <v>1.51275273761695</v>
       </c>
       <c r="E13">
-        <v>1.140083891693649</v>
+        <v>0.3077400502265561</v>
       </c>
       <c r="F13">
-        <v>9.319400007358041</v>
+        <v>25.37375831529152</v>
       </c>
       <c r="G13">
-        <v>0.000482946907554016</v>
+        <v>0.0004143978231123365</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>7.631327449424887</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>43.47090265263404</v>
+        <v>22.50235481862745</v>
       </c>
       <c r="L13">
-        <v>0.8432071590358134</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>12.30227013190313</v>
+      </c>
+      <c r="N13">
+        <v>0.0136318631596799</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1276441497036629</v>
+        <v>0.4418349294572863</v>
       </c>
       <c r="D14">
-        <v>0.4763454834662681</v>
+        <v>1.354577416510011</v>
       </c>
       <c r="E14">
-        <v>1.140083891693649</v>
+        <v>0.2770955242930135</v>
       </c>
       <c r="F14">
-        <v>9.319400007358041</v>
+        <v>23.02853717381566</v>
       </c>
       <c r="G14">
-        <v>0.000482946907554016</v>
+        <v>0.0004412437351678185</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>7.631327449424887</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>43.47090265263404</v>
+        <v>20.7079720426778</v>
       </c>
       <c r="L14">
-        <v>0.8432071590358134</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>11.34058857017595</v>
+      </c>
+      <c r="N14">
+        <v>0.005726629194708011</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1276441497036629</v>
+        <v>0.4241248088455905</v>
       </c>
       <c r="D15">
-        <v>0.4763454834662681</v>
+        <v>1.288624050721182</v>
       </c>
       <c r="E15">
-        <v>1.140083891693649</v>
+        <v>0.2647044983098823</v>
       </c>
       <c r="F15">
-        <v>9.319400007358041</v>
+        <v>22.03208907270925</v>
       </c>
       <c r="G15">
-        <v>0.000482946907554016</v>
+        <v>0.0004530440690146056</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>7.631327449424887</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>43.47090265263404</v>
+        <v>19.93267026394608</v>
       </c>
       <c r="L15">
-        <v>0.8432071590358134</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>10.92237830248271</v>
+      </c>
+      <c r="N15">
+        <v>0.005945105390182448</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1276441497036629</v>
+        <v>0.3547382497793024</v>
       </c>
       <c r="D16">
-        <v>0.4763454834662681</v>
+        <v>1.040674339704736</v>
       </c>
       <c r="E16">
-        <v>1.140083891693649</v>
+        <v>0.2193329889408062</v>
       </c>
       <c r="F16">
-        <v>9.319400007358041</v>
+        <v>18.18746717206801</v>
       </c>
       <c r="G16">
-        <v>0.000482946907554016</v>
+        <v>0.0005011162813604972</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>7.631327449424887</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>43.47090265263404</v>
+        <v>16.86116483866834</v>
       </c>
       <c r="L16">
-        <v>0.8432071590358134</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>9.253871729367489</v>
+      </c>
+      <c r="N16">
+        <v>0.02891881874864133</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1276441497036629</v>
+        <v>0.3239064135420051</v>
       </c>
       <c r="D17">
-        <v>0.4763454834662681</v>
+        <v>0.9356363201215174</v>
       </c>
       <c r="E17">
-        <v>1.140083891693649</v>
+        <v>0.200342388637555</v>
       </c>
       <c r="F17">
-        <v>9.319400007358041</v>
+        <v>16.51073784710712</v>
       </c>
       <c r="G17">
-        <v>0.000482946907554016</v>
+        <v>0.0005235438091215932</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>7.631327449424887</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>43.47090265263404</v>
+        <v>15.47751636734827</v>
       </c>
       <c r="L17">
-        <v>0.8432071590358134</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>8.497798606245567</v>
+      </c>
+      <c r="N17">
+        <v>0.05112721619261151</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1276441497036629</v>
+        <v>0.308266171569187</v>
       </c>
       <c r="D18">
-        <v>0.4763454834662681</v>
+        <v>0.8835344728544783</v>
       </c>
       <c r="E18">
-        <v>1.140083891693649</v>
+        <v>0.1908965626355119</v>
       </c>
       <c r="F18">
-        <v>9.319400007358041</v>
+        <v>15.66800442500062</v>
       </c>
       <c r="G18">
-        <v>0.000482946907554016</v>
+        <v>0.0005352071118896176</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>7.631327449424887</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>43.47090265263404</v>
+        <v>14.77087317329858</v>
       </c>
       <c r="L18">
-        <v>0.8432071590358134</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>8.11092452541493</v>
+      </c>
+      <c r="N18">
+        <v>0.06540331807501509</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1276441497036629</v>
+        <v>0.3032402351735186</v>
       </c>
       <c r="D19">
-        <v>0.4763454834662681</v>
+        <v>0.8669598833124894</v>
       </c>
       <c r="E19">
-        <v>1.140083891693649</v>
+        <v>0.1878832014598331</v>
       </c>
       <c r="F19">
-        <v>9.319400007358041</v>
+        <v>15.39834495200535</v>
       </c>
       <c r="G19">
-        <v>0.000482946907554016</v>
+        <v>0.0005389987355281387</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>7.631327449424887</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>43.47090265263404</v>
+        <v>14.54309649645981</v>
       </c>
       <c r="L19">
-        <v>0.8432071590358134</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>7.986132376542059</v>
+      </c>
+      <c r="N19">
+        <v>0.07043496247383452</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1276441497036629</v>
+        <v>0.3269470201171885</v>
       </c>
       <c r="D20">
-        <v>0.4763454834662681</v>
+        <v>0.945857464001449</v>
       </c>
       <c r="E20">
-        <v>1.140083891693649</v>
+        <v>0.2021919562298606</v>
       </c>
       <c r="F20">
-        <v>9.319400007358041</v>
+        <v>16.67519365591852</v>
       </c>
       <c r="G20">
-        <v>0.000482946907554016</v>
+        <v>0.00052129950909059</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>7.631327449424887</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>43.47090265263404</v>
+        <v>15.61451695621895</v>
       </c>
       <c r="L20">
-        <v>0.8432071590358134</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>8.57275140183765</v>
+      </c>
+      <c r="N20">
+        <v>0.04859102769183821</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1276441497036629</v>
+        <v>0.4517282919793075</v>
       </c>
       <c r="D21">
-        <v>0.4763454834662681</v>
+        <v>1.391914717790769</v>
       </c>
       <c r="E21">
-        <v>1.140083891693649</v>
+        <v>0.2842005392371618</v>
       </c>
       <c r="F21">
-        <v>9.319400007358041</v>
+        <v>23.58780102113855</v>
       </c>
       <c r="G21">
-        <v>0.000482946907554016</v>
+        <v>0.0004347270725775475</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>7.631327449424887</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>43.47090265263404</v>
+        <v>21.13965998066678</v>
       </c>
       <c r="L21">
-        <v>0.8432071590358134</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>11.57279586069876</v>
+      </c>
+      <c r="N21">
+        <v>0.006560743375462863</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1276441497036629</v>
+        <v>0.4517282919793075</v>
       </c>
       <c r="D22">
-        <v>0.4763454834662681</v>
+        <v>1.391914717790769</v>
       </c>
       <c r="E22">
-        <v>1.140083891693649</v>
+        <v>0.2842005392371618</v>
       </c>
       <c r="F22">
-        <v>9.319400007358041</v>
+        <v>23.58780102113855</v>
       </c>
       <c r="G22">
-        <v>0.000482946907554016</v>
+        <v>0.0004347270725775475</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>7.631327449424887</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>43.47090265263404</v>
+        <v>21.13965998066678</v>
       </c>
       <c r="L22">
-        <v>0.8432071590358134</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>11.57279586069876</v>
+      </c>
+      <c r="N22">
+        <v>0.006560743375462863</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1276441497036629</v>
+        <v>0.4517282919793075</v>
       </c>
       <c r="D23">
-        <v>0.4763454834662681</v>
+        <v>1.391914717790769</v>
       </c>
       <c r="E23">
-        <v>1.140083891693649</v>
+        <v>0.2842005392371618</v>
       </c>
       <c r="F23">
-        <v>9.319400007358041</v>
+        <v>23.58780102113855</v>
       </c>
       <c r="G23">
-        <v>0.000482946907554016</v>
+        <v>0.0004347270725775475</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>7.631327449424887</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>43.47090265263404</v>
+        <v>21.13965998066678</v>
       </c>
       <c r="L23">
-        <v>0.8432071590358134</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>11.57279586069876</v>
+      </c>
+      <c r="N23">
+        <v>0.006560743375462863</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1276441497036629</v>
+        <v>0.7500559381032588</v>
       </c>
       <c r="D24">
-        <v>0.4763454834662681</v>
+        <v>2.770824321262836</v>
       </c>
       <c r="E24">
-        <v>1.140083891693649</v>
+        <v>0.6715305027980207</v>
       </c>
       <c r="F24">
-        <v>9.319400007358041</v>
+        <v>41.52887343833237</v>
       </c>
       <c r="G24">
-        <v>0.000482946907554016</v>
+        <v>0.0002550792667355064</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>7.631327449424887</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>43.47090265263404</v>
+        <v>33.98724211026237</v>
       </c>
       <c r="L24">
-        <v>0.8432071590358134</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>17.95682552314352</v>
+      </c>
+      <c r="N24">
+        <v>0.329037529538212</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,36 +1505,42 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1276441497036629</v>
+        <v>0.8312964126712501</v>
       </c>
       <c r="D25">
-        <v>0.4763454834662681</v>
+        <v>3.450151852051761</v>
       </c>
       <c r="E25">
-        <v>1.140083891693649</v>
+        <v>1.063020555233557</v>
       </c>
       <c r="F25">
-        <v>9.319400007358041</v>
+        <v>47.78693393943212</v>
       </c>
       <c r="G25">
-        <v>0.000482946907554016</v>
+        <v>0.0001995606785230431</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>7.631327449424887</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>43.47090265263404</v>
+        <v>38.20519178844799</v>
       </c>
       <c r="L25">
-        <v>0.8432071590358134</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>19.36759352705414</v>
+      </c>
+      <c r="N25">
+        <v>0.5550089902277193</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_51/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1789439292517301</v>
+        <v>0.1732096245728201</v>
       </c>
       <c r="D2">
-        <v>0.4834935937648481</v>
+        <v>0.02498485333449807</v>
       </c>
       <c r="E2">
-        <v>0.1149868547193904</v>
+        <v>0.1394726866617049</v>
       </c>
       <c r="F2">
-        <v>8.926239276485205</v>
+        <v>0.9529634660155182</v>
       </c>
       <c r="G2">
-        <v>0.0006412924500911577</v>
+        <v>0.88956792378454</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.5579319985719167</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.8520707632873439</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.792036000669896</v>
+        <v>4.07299179531509</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1964192420034863</v>
       </c>
       <c r="M2">
-        <v>4.827949305391812</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.2717205907408946</v>
+        <v>0.7117908073068477</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1486354653534789</v>
+        <v>0.1540252698987388</v>
       </c>
       <c r="D3">
-        <v>0.3981234036818222</v>
+        <v>0.02501059954772344</v>
       </c>
       <c r="E3">
-        <v>0.0971692972958671</v>
+        <v>0.1238330987932628</v>
       </c>
       <c r="F3">
-        <v>7.41430852449713</v>
+        <v>0.87155371145532</v>
       </c>
       <c r="G3">
-        <v>0.0006696212605052931</v>
+        <v>0.8126286456803911</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.530738991936488</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.784826194529991</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.351578911687312</v>
+        <v>3.531823694617287</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1741948988044442</v>
       </c>
       <c r="M3">
-        <v>4.036754358134232</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.3469541095699231</v>
+        <v>0.7403382058644397</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1314721976339257</v>
+        <v>0.1424089290116797</v>
       </c>
       <c r="D4">
-        <v>0.35135770562934</v>
+        <v>0.02503911374771661</v>
       </c>
       <c r="E4">
-        <v>0.08697679963041693</v>
+        <v>0.1144122124001399</v>
       </c>
       <c r="F4">
-        <v>6.572214610752638</v>
+        <v>0.823874100766929</v>
       </c>
       <c r="G4">
-        <v>0.0006865391442190116</v>
+        <v>0.7678004054103837</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.5153953468222738</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.745576954923969</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>6.528313071224886</v>
+        <v>3.201604301825284</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1608511448638197</v>
       </c>
       <c r="M4">
-        <v>3.584910162052779</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.3951952647237942</v>
+        <v>0.7590402017985696</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1247514787406629</v>
+        <v>0.137712182157216</v>
       </c>
       <c r="D5">
-        <v>0.3333754029352889</v>
+        <v>0.02505377786015117</v>
       </c>
       <c r="E5">
-        <v>0.08295882078923711</v>
+        <v>0.1106144400996421</v>
       </c>
       <c r="F5">
-        <v>6.24551295164278</v>
+        <v>0.8049778530522929</v>
       </c>
       <c r="G5">
-        <v>0.0006933684199282776</v>
+        <v>0.7500896161577373</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.5094600024945066</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.7300554739746232</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>6.204370312479938</v>
+        <v>3.067465871573063</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1554820242082116</v>
       </c>
       <c r="M5">
-        <v>3.407212357401249</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.4153091881037234</v>
+        <v>0.7669459626553206</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1236498993280861</v>
+        <v>0.1369344152278558</v>
       </c>
       <c r="D6">
-        <v>0.3304462708691318</v>
+        <v>0.02505639268306226</v>
       </c>
       <c r="E6">
-        <v>0.08229862175914704</v>
+        <v>0.1099861946548373</v>
       </c>
       <c r="F6">
-        <v>6.192135342605582</v>
+        <v>0.8018710745426887</v>
       </c>
       <c r="G6">
-        <v>0.0006944997883211168</v>
+        <v>0.7471810103509995</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.5084929673503211</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.7275055901889758</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>6.151186706426103</v>
+        <v>3.045215685894163</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1545944204321614</v>
       </c>
       <c r="M6">
-        <v>3.378044570461867</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4186751897129479</v>
+        <v>0.7682755978544691</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1313805515304125</v>
+        <v>0.1423454422472332</v>
       </c>
       <c r="D7">
-        <v>0.3511112156048171</v>
+        <v>0.02503929937060079</v>
       </c>
       <c r="E7">
-        <v>0.08692211923670712</v>
+        <v>0.1143608326564838</v>
       </c>
       <c r="F7">
-        <v>6.567747696545098</v>
+        <v>0.823617157974823</v>
       </c>
       <c r="G7">
-        <v>0.000686631448802732</v>
+        <v>0.767559359121222</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.5153140450538274</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.7453657628164834</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>6.523901737220143</v>
+        <v>3.199793641921872</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1607784668064483</v>
       </c>
       <c r="M7">
-        <v>3.58248993901617</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.3954647499376289</v>
+        <v>0.7591456830180192</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1681287559763689</v>
+        <v>0.1665585662054667</v>
       </c>
       <c r="D8">
-        <v>0.452636088019716</v>
+        <v>0.02499099611850752</v>
       </c>
       <c r="E8">
-        <v>0.1086499058272459</v>
+        <v>0.1340396466368574</v>
       </c>
       <c r="F8">
-        <v>8.383281582475348</v>
+        <v>0.9243858151023403</v>
       </c>
       <c r="G8">
-        <v>0.0006511983163140742</v>
+        <v>0.8625075485602451</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.5482607653440112</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.8284367451869343</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.279917009662654</v>
+        <v>3.885913520307895</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1886889753266061</v>
       </c>
       <c r="M8">
-        <v>4.546592481204897</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.2971933487277347</v>
+        <v>0.7213837175774742</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2584607413162416</v>
+        <v>0.2155288601069145</v>
       </c>
       <c r="D9">
-        <v>0.7229007426925875</v>
+        <v>0.02500510765717934</v>
       </c>
       <c r="E9">
-        <v>0.1613894792516888</v>
+        <v>0.1742903919037317</v>
       </c>
       <c r="F9">
-        <v>13.02145650051574</v>
+        <v>1.142558569576437</v>
       </c>
       <c r="G9">
-        <v>0.0005738085959661886</v>
+        <v>1.070271469648119</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.6247238951195868</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.009468939990356</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.49809030454767</v>
+        <v>5.252177807798887</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2461817113463809</v>
       </c>
       <c r="M9">
-        <v>6.864250104055799</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.1252371283524276</v>
+        <v>0.6571623303144136</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3586385749241856</v>
+        <v>0.2527145086237539</v>
       </c>
       <c r="D10">
-        <v>1.054183628478285</v>
+        <v>0.02509510014052907</v>
       </c>
       <c r="E10">
-        <v>0.2217768466461187</v>
+        <v>0.205207501205436</v>
       </c>
       <c r="F10">
-        <v>18.40100248779214</v>
+        <v>1.31883292302139</v>
       </c>
       <c r="G10">
-        <v>0.0004983293301268765</v>
+        <v>1.239755986547067</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.6898309841250807</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.156492936197168</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>17.03534092705897</v>
+        <v>6.275491825387405</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2906598050563787</v>
       </c>
       <c r="M10">
-        <v>9.348887627205244</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.02665400810676921</v>
+        <v>0.6167518308031603</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4381836621675461</v>
+        <v>0.2699676992866245</v>
       </c>
       <c r="D11">
-        <v>1.340887778020118</v>
+        <v>0.02515697622237312</v>
       </c>
       <c r="E11">
-        <v>0.2745076546611145</v>
+        <v>0.2196471183586013</v>
       </c>
       <c r="F11">
-        <v>22.82260741922988</v>
+        <v>1.403349197561525</v>
       </c>
       <c r="G11">
-        <v>0.0004436622441406237</v>
+        <v>1.321431373462559</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.7218116295219943</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1.22715837138702</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>20.54839899164872</v>
+        <v>6.746971162217392</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3115181870659995</v>
       </c>
       <c r="M11">
-        <v>11.25463125223416</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.005590912098190515</v>
+        <v>0.6000320539086772</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.5063208936193035</v>
+        <v>0.2765563748687896</v>
       </c>
       <c r="D12">
-        <v>1.604663616120575</v>
+        <v>0.02518378473319416</v>
       </c>
       <c r="E12">
-        <v>0.3263166719589563</v>
+        <v>0.225176636177622</v>
       </c>
       <c r="F12">
-        <v>26.70743117890549</v>
+        <v>1.436055042699309</v>
       </c>
       <c r="G12">
-        <v>0.0003996642880387896</v>
+        <v>1.353102977801285</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.7343010647905999</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.25453006199875</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>23.50500073095463</v>
+        <v>6.926524112721552</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3195194265258863</v>
       </c>
       <c r="M12">
-        <v>12.83502280921269</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.02309279127192809</v>
+        <v>0.5939579626206637</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4831034851748228</v>
+        <v>0.2751348124710944</v>
       </c>
       <c r="D13">
-        <v>1.51275273761695</v>
+        <v>0.0251778543644221</v>
       </c>
       <c r="E13">
-        <v>0.3077400502265561</v>
+        <v>0.223982888974092</v>
       </c>
       <c r="F13">
-        <v>25.37375831529152</v>
+        <v>1.428978715540296</v>
       </c>
       <c r="G13">
-        <v>0.0004143978231123365</v>
+        <v>1.346247443997726</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.7315937139377979</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.248606688696299</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>22.50235481862745</v>
+        <v>6.887806419839592</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.3177914350780924</v>
       </c>
       <c r="M13">
-        <v>12.30227013190313</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.0136318631596799</v>
+        <v>0.5952543738089346</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4418349294572863</v>
+        <v>0.2705086047237728</v>
       </c>
       <c r="D14">
-        <v>1.354577416510011</v>
+        <v>0.02515911177870578</v>
       </c>
       <c r="E14">
-        <v>0.2770955242930135</v>
+        <v>0.2201007553485752</v>
       </c>
       <c r="F14">
-        <v>23.02853717381566</v>
+        <v>1.406025389393008</v>
       </c>
       <c r="G14">
-        <v>0.0004412437351678185</v>
+        <v>1.324021608880628</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.7228313066311216</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.229397571390095</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.7079720426778</v>
+        <v>6.761721819715717</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.312174319410417</v>
       </c>
       <c r="M14">
-        <v>11.34058857017595</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.005726629194708011</v>
+        <v>0.5995270671592223</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4241248088455905</v>
+        <v>0.2676823289188945</v>
       </c>
       <c r="D15">
-        <v>1.288624050721182</v>
+        <v>0.02514808311304151</v>
       </c>
       <c r="E15">
-        <v>0.2647044983098823</v>
+        <v>0.2177310902775318</v>
       </c>
       <c r="F15">
-        <v>22.03208907270925</v>
+        <v>1.392059634810053</v>
       </c>
       <c r="G15">
-        <v>0.0004530440690146056</v>
+        <v>1.31050706028222</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.7175146779225088</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.217713304868397</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.93267026394608</v>
+        <v>6.684628309607092</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.3087474391439287</v>
       </c>
       <c r="M15">
-        <v>10.92237830248271</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.005945105390182448</v>
+        <v>0.602178296103645</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3547382497793024</v>
+        <v>0.2515943217810843</v>
       </c>
       <c r="D16">
-        <v>1.040674339704736</v>
+        <v>0.02509150775118485</v>
       </c>
       <c r="E16">
-        <v>0.2193329889408062</v>
+        <v>0.2042720205071475</v>
       </c>
       <c r="F16">
-        <v>18.18746717206801</v>
+        <v>1.313403250653508</v>
       </c>
       <c r="G16">
-        <v>0.0005011162813604972</v>
+        <v>1.234517449467432</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.6877917897186308</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.151956587105602</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.86116483866834</v>
+        <v>6.244812586122634</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2893102979769537</v>
       </c>
       <c r="M16">
-        <v>9.253871729367489</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.02891881874864133</v>
+        <v>0.6178794875131146</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3239064135420051</v>
+        <v>0.2418158360277829</v>
       </c>
       <c r="D17">
-        <v>0.9356363201215174</v>
+        <v>0.02506240641685764</v>
       </c>
       <c r="E17">
-        <v>0.200342388637555</v>
+        <v>0.1961165902364925</v>
       </c>
       <c r="F17">
-        <v>16.51073784710712</v>
+        <v>1.266312389074301</v>
       </c>
       <c r="G17">
-        <v>0.0005235438091215932</v>
+        <v>1.189130038229308</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.6701896954444067</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.112632369377764</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.47751636734827</v>
+        <v>5.97663434338034</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2775549953825021</v>
       </c>
       <c r="M17">
-        <v>8.497798606245567</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.05112721619261151</v>
+        <v>0.6279500149392092</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.308266171569187</v>
+        <v>0.2362228098845804</v>
       </c>
       <c r="D18">
-        <v>0.8835344728544783</v>
+        <v>0.02504761374598274</v>
       </c>
       <c r="E18">
-        <v>0.1908965626355119</v>
+        <v>0.1914606269773103</v>
       </c>
       <c r="F18">
-        <v>15.66800442500062</v>
+        <v>1.239629184601085</v>
       </c>
       <c r="G18">
-        <v>0.0005352071118896176</v>
+        <v>1.163449550796088</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.6602852885079926</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.090365768959543</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.77087317329858</v>
+        <v>5.822936875539597</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.270851654863776</v>
       </c>
       <c r="M18">
-        <v>8.11092452541493</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.06540331807501509</v>
+        <v>0.6338976735085708</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3032402351735186</v>
+        <v>0.2343342877947379</v>
       </c>
       <c r="D19">
-        <v>0.8669598833124894</v>
+        <v>0.02504292912092509</v>
       </c>
       <c r="E19">
-        <v>0.1878832014598331</v>
+        <v>0.1898899602657167</v>
       </c>
       <c r="F19">
-        <v>15.39834495200535</v>
+        <v>1.230661512114651</v>
       </c>
       <c r="G19">
-        <v>0.0005389987355281387</v>
+        <v>1.154825151501655</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.6569684547290251</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.082885111035949</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.54309649645981</v>
+        <v>5.770987802903846</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2685916132045492</v>
       </c>
       <c r="M19">
-        <v>7.986132376542059</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.07043496247383452</v>
+        <v>0.6359376061277757</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3269470201171885</v>
+        <v>0.242853486184103</v>
       </c>
       <c r="D20">
-        <v>0.945857464001449</v>
+        <v>0.0250653004634529</v>
       </c>
       <c r="E20">
-        <v>0.2021919562298606</v>
+        <v>0.196981093011658</v>
       </c>
       <c r="F20">
-        <v>16.67519365591852</v>
+        <v>1.271283117262854</v>
       </c>
       <c r="G20">
-        <v>0.00052129950909059</v>
+        <v>1.193917016650317</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.6720404429614177</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.116781633285967</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.61451695621895</v>
+        <v>6.005124214112698</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2788002766636879</v>
       </c>
       <c r="M20">
-        <v>8.57275140183765</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.04859102769183821</v>
+        <v>0.6268617851855538</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4517282919793075</v>
+        <v>0.2718658767688851</v>
       </c>
       <c r="D21">
-        <v>1.391914717790769</v>
+        <v>0.02516452205702535</v>
       </c>
       <c r="E21">
-        <v>0.2842005392371618</v>
+        <v>0.2212392973375472</v>
       </c>
       <c r="F21">
-        <v>23.58780102113855</v>
+        <v>1.412747633041178</v>
       </c>
       <c r="G21">
-        <v>0.0004347270725775475</v>
+        <v>1.330528992914424</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.7253944174561298</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1.235022560903161</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>21.13965998066678</v>
+        <v>6.798727081806362</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3138213091283006</v>
       </c>
       <c r="M21">
-        <v>11.57279586069876</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.006560743375462863</v>
+        <v>0.5982649361615273</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4517282919793075</v>
+        <v>0.2911529427555308</v>
       </c>
       <c r="D22">
-        <v>1.391914717790769</v>
+        <v>0.02524926905691771</v>
       </c>
       <c r="E22">
-        <v>0.2842005392371618</v>
+        <v>0.2374562914436567</v>
       </c>
       <c r="F22">
-        <v>23.58780102113855</v>
+        <v>1.50933366074257</v>
       </c>
       <c r="G22">
-        <v>0.0004347270725775475</v>
+        <v>1.424188991879475</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.7624950182818679</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1.315905233530472</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>21.13965998066678</v>
+        <v>7.323387082116597</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3373146488633267</v>
       </c>
       <c r="M22">
-        <v>11.57279586069876</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.006560743375462863</v>
+        <v>0.5810848860847528</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4517282919793075</v>
+        <v>0.2808268413594988</v>
       </c>
       <c r="D23">
-        <v>1.391914717790769</v>
+        <v>0.02520208030496462</v>
       </c>
       <c r="E23">
-        <v>0.2842005392371618</v>
+        <v>0.2287650587306942</v>
       </c>
       <c r="F23">
-        <v>23.58780102113855</v>
+        <v>1.457377648139627</v>
       </c>
       <c r="G23">
-        <v>0.0004347270725775475</v>
+        <v>1.373770069726135</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.7424755627598358</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.272382327969851</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>21.13965998066678</v>
+        <v>7.042761805329462</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3247158812920077</v>
       </c>
       <c r="M23">
-        <v>11.57279586069876</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.006560743375462863</v>
+        <v>0.5901095910800009</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.7500559381032588</v>
+        <v>0.2423842754848664</v>
       </c>
       <c r="D24">
-        <v>2.770824321262836</v>
+        <v>0.02506398605541094</v>
       </c>
       <c r="E24">
-        <v>0.6715305027980207</v>
+        <v>0.1965901500103371</v>
       </c>
       <c r="F24">
-        <v>41.52887343833237</v>
+        <v>1.269034642283188</v>
       </c>
       <c r="G24">
-        <v>0.0002550792667355064</v>
+        <v>1.191751542552339</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.6712030524027455</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.114904692703476</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>33.98724211026237</v>
+        <v>5.992242454489769</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2782371148182818</v>
       </c>
       <c r="M24">
-        <v>17.95682552314352</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.329037529538212</v>
+        <v>0.6273532831422486</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.8312964126712501</v>
+        <v>0.2020924108292945</v>
       </c>
       <c r="D25">
-        <v>3.450151852051761</v>
+        <v>0.02498839624361082</v>
       </c>
       <c r="E25">
-        <v>1.063020555233557</v>
+        <v>0.1631911969786159</v>
       </c>
       <c r="F25">
-        <v>47.78693393943212</v>
+        <v>1.08099821822492</v>
       </c>
       <c r="G25">
-        <v>0.0001995606785230431</v>
+        <v>1.011395612683614</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.6026029812788352</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.9582637703710049</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>38.20519178844799</v>
+        <v>4.87967316145</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.230278607523104</v>
       </c>
       <c r="M25">
-        <v>19.36759352705414</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5550089902277193</v>
+        <v>0.6734072926210573</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_51/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1732096245728201</v>
+        <v>0.1797227757417943</v>
       </c>
       <c r="D2">
-        <v>0.02498485333449807</v>
+        <v>0.0435955048535881</v>
       </c>
       <c r="E2">
-        <v>0.1394726866617049</v>
+        <v>0.1325008509881194</v>
       </c>
       <c r="F2">
-        <v>0.9529634660155182</v>
+        <v>1.204450486139535</v>
       </c>
       <c r="G2">
-        <v>0.88956792378454</v>
+        <v>1.078133462989925</v>
       </c>
       <c r="H2">
-        <v>0.5579319985719167</v>
+        <v>1.050730821794829</v>
       </c>
       <c r="I2">
-        <v>0.8520707632873439</v>
+        <v>1.183615314825666</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>4.07299179531509</v>
+        <v>1.662797164383733</v>
       </c>
       <c r="L2">
-        <v>0.1964192420034863</v>
+        <v>0.1772876741929679</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7117908073068477</v>
+        <v>1.236459234024103</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1540252698987388</v>
+        <v>0.1754687248507025</v>
       </c>
       <c r="D3">
-        <v>0.02501059954772344</v>
+        <v>0.04360659440974857</v>
       </c>
       <c r="E3">
-        <v>0.1238330987932628</v>
+        <v>0.1292269150301415</v>
       </c>
       <c r="F3">
-        <v>0.87155371145532</v>
+        <v>1.195608402036711</v>
       </c>
       <c r="G3">
-        <v>0.8126286456803911</v>
+        <v>1.070244041303539</v>
       </c>
       <c r="H3">
-        <v>0.530738991936488</v>
+        <v>1.053200183601831</v>
       </c>
       <c r="I3">
-        <v>0.784826194529991</v>
+        <v>1.177843412716641</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.531823694617287</v>
+        <v>1.510329207646521</v>
       </c>
       <c r="L3">
-        <v>0.1741948988044442</v>
+        <v>0.1727706243253593</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7403382058644397</v>
+        <v>1.248587195801505</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1424089290116797</v>
+        <v>0.1729329611819423</v>
       </c>
       <c r="D4">
-        <v>0.02503911374771661</v>
+        <v>0.04361990373555358</v>
       </c>
       <c r="E4">
-        <v>0.1144122124001399</v>
+        <v>0.1272877263987304</v>
       </c>
       <c r="F4">
-        <v>0.823874100766929</v>
+        <v>1.191054737370393</v>
       </c>
       <c r="G4">
-        <v>0.7678004054103837</v>
+        <v>1.066257283302733</v>
       </c>
       <c r="H4">
-        <v>0.5153953468222738</v>
+        <v>1.055334052207968</v>
       </c>
       <c r="I4">
-        <v>0.745576954923969</v>
+        <v>1.175109838312117</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>3.201604301825284</v>
+        <v>1.417070023065776</v>
       </c>
       <c r="L4">
-        <v>0.1608511448638197</v>
+        <v>0.1701043161996765</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7590402017985696</v>
+        <v>1.256560830671638</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.137712182157216</v>
+        <v>0.1719188298279164</v>
       </c>
       <c r="D5">
-        <v>0.02505377786015117</v>
+        <v>0.04362696990906656</v>
       </c>
       <c r="E5">
-        <v>0.1106144400996421</v>
+        <v>0.1265153371281009</v>
       </c>
       <c r="F5">
-        <v>0.8049778530522929</v>
+        <v>1.189418574994605</v>
       </c>
       <c r="G5">
-        <v>0.7500896161577373</v>
+        <v>1.064847430968072</v>
       </c>
       <c r="H5">
-        <v>0.5094600024945066</v>
+        <v>1.056358695817693</v>
       </c>
       <c r="I5">
-        <v>0.7300554739746232</v>
+        <v>1.174199151557183</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>3.067465871573063</v>
+        <v>1.379156807389847</v>
       </c>
       <c r="L5">
-        <v>0.1554820242082116</v>
+        <v>0.1690446634995126</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7669459626553206</v>
+        <v>1.259942714423005</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1369344152278558</v>
+        <v>0.1717515957463718</v>
       </c>
       <c r="D6">
-        <v>0.02505639268306226</v>
+        <v>0.04362824268430998</v>
       </c>
       <c r="E6">
-        <v>0.1099861946548373</v>
+        <v>0.1263881599602072</v>
       </c>
       <c r="F6">
-        <v>0.8018710745426887</v>
+        <v>1.189160129785805</v>
       </c>
       <c r="G6">
-        <v>0.7471810103509995</v>
+        <v>1.064626274834623</v>
       </c>
       <c r="H6">
-        <v>0.5084929673503211</v>
+        <v>1.056538196180028</v>
       </c>
       <c r="I6">
-        <v>0.7275055901889758</v>
+        <v>1.174060194592499</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.045215685894163</v>
+        <v>1.372866850861215</v>
       </c>
       <c r="L6">
-        <v>0.1545944204321614</v>
+        <v>0.1688703312619424</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7682755978544691</v>
+        <v>1.260512281433996</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1423454422472332</v>
+        <v>0.1729192064027956</v>
       </c>
       <c r="D7">
-        <v>0.02503929937060079</v>
+        <v>0.04361999237159608</v>
       </c>
       <c r="E7">
-        <v>0.1143608326564838</v>
+        <v>0.1272772374459343</v>
       </c>
       <c r="F7">
-        <v>0.823617157974823</v>
+        <v>1.19103178364098</v>
       </c>
       <c r="G7">
-        <v>0.767559359121222</v>
+        <v>1.066237400966628</v>
       </c>
       <c r="H7">
-        <v>0.5153140450538274</v>
+        <v>1.055347243346247</v>
       </c>
       <c r="I7">
-        <v>0.7453657628164834</v>
+        <v>1.175096734136353</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3.199793641921872</v>
+        <v>1.416558343833515</v>
       </c>
       <c r="L7">
-        <v>0.1607784668064483</v>
+        <v>0.1700899165578207</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7591456830180192</v>
+        <v>1.256605903145264</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1665585662054667</v>
+        <v>0.1782401782457157</v>
       </c>
       <c r="D8">
-        <v>0.02499099611850752</v>
+        <v>0.043597984053104</v>
       </c>
       <c r="E8">
-        <v>0.1340396466368574</v>
+        <v>0.1313572480471592</v>
       </c>
       <c r="F8">
-        <v>0.9243858151023403</v>
+        <v>1.201219653845612</v>
       </c>
       <c r="G8">
-        <v>0.8625075485602451</v>
+        <v>1.075234746704368</v>
       </c>
       <c r="H8">
-        <v>0.5482607653440112</v>
+        <v>1.051453910802692</v>
       </c>
       <c r="I8">
-        <v>0.8284367451869343</v>
+        <v>1.181456649605714</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.885913520307895</v>
+        <v>1.610152684091133</v>
       </c>
       <c r="L8">
-        <v>0.1886889753266061</v>
+        <v>0.1757079113993285</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7213837175774742</v>
+        <v>1.240531595194184</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2155288601069145</v>
+        <v>0.1892784446874174</v>
       </c>
       <c r="D9">
-        <v>0.02500510765717934</v>
+        <v>0.04360608034268765</v>
       </c>
       <c r="E9">
-        <v>0.1742903919037317</v>
+        <v>0.1399228524862224</v>
       </c>
       <c r="F9">
-        <v>1.142558569576437</v>
+        <v>1.228175713859628</v>
       </c>
       <c r="G9">
-        <v>1.070271469648119</v>
+        <v>1.099720704628723</v>
       </c>
       <c r="H9">
-        <v>0.6247238951195868</v>
+        <v>1.048732201971163</v>
       </c>
       <c r="I9">
-        <v>1.009468939990356</v>
+        <v>1.200384275800431</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>5.252177807798887</v>
+        <v>1.992600196344597</v>
       </c>
       <c r="L9">
-        <v>0.2461817113463809</v>
+        <v>0.1875787959966431</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6571623303144136</v>
+        <v>1.213190026043563</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2527145086237539</v>
+        <v>0.1977560415493258</v>
       </c>
       <c r="D10">
-        <v>0.02509510014052907</v>
+        <v>0.04364288194835453</v>
       </c>
       <c r="E10">
-        <v>0.205207501205436</v>
+        <v>0.1465627963920042</v>
       </c>
       <c r="F10">
-        <v>1.31883292302139</v>
+        <v>1.252282289933135</v>
       </c>
       <c r="G10">
-        <v>1.239755986547067</v>
+        <v>1.121939975585889</v>
       </c>
       <c r="H10">
-        <v>0.6898309841250807</v>
+        <v>1.049746282722367</v>
       </c>
       <c r="I10">
-        <v>1.156492936197168</v>
+        <v>1.218265327799813</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>6.275491825387405</v>
+        <v>2.275299330270911</v>
       </c>
       <c r="L10">
-        <v>0.2906598050563787</v>
+        <v>0.1968271391290415</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6167518308031603</v>
+        <v>1.195648712027293</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2699676992866245</v>
+        <v>0.2016925905216738</v>
       </c>
       <c r="D11">
-        <v>0.02515697622237312</v>
+        <v>0.04366624766657878</v>
       </c>
       <c r="E11">
-        <v>0.2196471183586013</v>
+        <v>0.1496593895848974</v>
       </c>
       <c r="F11">
-        <v>1.403349197561525</v>
+        <v>1.264193836553318</v>
       </c>
       <c r="G11">
-        <v>1.321431373462559</v>
+        <v>1.132979332253342</v>
       </c>
       <c r="H11">
-        <v>0.7218116295219943</v>
+        <v>1.050866180750546</v>
       </c>
       <c r="I11">
-        <v>1.22715837138702</v>
+        <v>1.227271753363482</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>6.746971162217392</v>
+        <v>2.404281518418713</v>
       </c>
       <c r="L11">
-        <v>0.3115181870659995</v>
+        <v>0.2011502561716867</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6000320539086772</v>
+        <v>1.188221475815354</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2765563748687896</v>
+        <v>0.2031947485272951</v>
       </c>
       <c r="D12">
-        <v>0.02518378473319416</v>
+        <v>0.04367604204119147</v>
       </c>
       <c r="E12">
-        <v>0.225176636177622</v>
+        <v>0.1508429568416432</v>
       </c>
       <c r="F12">
-        <v>1.436055042699309</v>
+        <v>1.268841161941708</v>
       </c>
       <c r="G12">
-        <v>1.353102977801285</v>
+        <v>1.137294602034927</v>
       </c>
       <c r="H12">
-        <v>0.7343010647905999</v>
+        <v>1.05138527846097</v>
       </c>
       <c r="I12">
-        <v>1.25453006199875</v>
+        <v>1.230808329492945</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>6.926524112721552</v>
+        <v>2.453178061720848</v>
       </c>
       <c r="L12">
-        <v>0.3195194265258863</v>
+        <v>0.2028040801581454</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5939579626206637</v>
+        <v>1.18548842081367</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2751348124710944</v>
+        <v>0.2028707222923174</v>
       </c>
       <c r="D13">
-        <v>0.0251778543644221</v>
+        <v>0.04367389065857097</v>
       </c>
       <c r="E13">
-        <v>0.223982888974092</v>
+        <v>0.1505875669401888</v>
       </c>
       <c r="F13">
-        <v>1.428978715540296</v>
+        <v>1.267834186466047</v>
       </c>
       <c r="G13">
-        <v>1.346247443997726</v>
+        <v>1.136359216707774</v>
       </c>
       <c r="H13">
-        <v>0.7315937139377979</v>
+        <v>1.051269250574677</v>
       </c>
       <c r="I13">
-        <v>1.248606688696299</v>
+        <v>1.230041049187179</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>6.887806419839592</v>
+        <v>2.442644939572574</v>
       </c>
       <c r="L13">
-        <v>0.3177914350780924</v>
+        <v>0.2024471532908194</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5952543738089346</v>
+        <v>1.186073497498846</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2705086047237728</v>
+        <v>0.2018159442599199</v>
       </c>
       <c r="D14">
-        <v>0.02515911177870578</v>
+        <v>0.04366703452650356</v>
       </c>
       <c r="E14">
-        <v>0.2201007553485752</v>
+        <v>0.1497565427184071</v>
       </c>
       <c r="F14">
-        <v>1.406025389393008</v>
+        <v>1.264573431248309</v>
       </c>
       <c r="G14">
-        <v>1.324021608880628</v>
+        <v>1.133331643064622</v>
       </c>
       <c r="H14">
-        <v>0.7228313066311216</v>
+        <v>1.050906981154668</v>
       </c>
       <c r="I14">
-        <v>1.229397571390095</v>
+        <v>1.2275601801025</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>6.761721819715717</v>
+        <v>2.408303194076154</v>
       </c>
       <c r="L14">
-        <v>0.312174319410417</v>
+        <v>0.2012859810828758</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5995270671592223</v>
+        <v>1.187995032591282</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2676823289188945</v>
+        <v>0.2011713551705867</v>
       </c>
       <c r="D15">
-        <v>0.02514808311304151</v>
+        <v>0.04366295799954756</v>
       </c>
       <c r="E15">
-        <v>0.2177310902775318</v>
+        <v>0.149248943571429</v>
       </c>
       <c r="F15">
-        <v>1.392059634810053</v>
+        <v>1.262593946554531</v>
       </c>
       <c r="G15">
-        <v>1.31050706028222</v>
+        <v>1.131494763030645</v>
       </c>
       <c r="H15">
-        <v>0.7175146779225088</v>
+        <v>1.050697463979816</v>
       </c>
       <c r="I15">
-        <v>1.217713304868397</v>
+        <v>1.226057008252994</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>6.684628309607092</v>
+        <v>2.387274859085665</v>
       </c>
       <c r="L15">
-        <v>0.3087474391439287</v>
+        <v>0.200576913541056</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.602178296103645</v>
+        <v>1.189182380180384</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2515943217810843</v>
+        <v>0.1975003862764879</v>
       </c>
       <c r="D16">
-        <v>0.02509150775118485</v>
+        <v>0.04364148769952791</v>
       </c>
       <c r="E16">
-        <v>0.2042720205071475</v>
+        <v>0.1463619586457767</v>
       </c>
       <c r="F16">
-        <v>1.313403250653508</v>
+        <v>1.251522928390898</v>
       </c>
       <c r="G16">
-        <v>1.234517449467432</v>
+        <v>1.1212373550199</v>
       </c>
       <c r="H16">
-        <v>0.6877917897186308</v>
+        <v>1.049686373854627</v>
       </c>
       <c r="I16">
-        <v>1.151956587105602</v>
+        <v>1.217694340581787</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>6.244812586122634</v>
+        <v>2.266877621246294</v>
       </c>
       <c r="L16">
-        <v>0.2893102979769537</v>
+        <v>0.1965469536694684</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6178794875131146</v>
+        <v>1.196145218589677</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2418158360277829</v>
+        <v>0.1952688403000735</v>
       </c>
       <c r="D17">
-        <v>0.02506240641685764</v>
+        <v>0.04363000846613119</v>
       </c>
       <c r="E17">
-        <v>0.1961165902364925</v>
+        <v>0.144610378157374</v>
       </c>
       <c r="F17">
-        <v>1.266312389074301</v>
+        <v>1.244973868907977</v>
       </c>
       <c r="G17">
-        <v>1.189130038229308</v>
+        <v>1.115184056338222</v>
       </c>
       <c r="H17">
-        <v>0.6701896954444067</v>
+        <v>1.049235004147192</v>
       </c>
       <c r="I17">
-        <v>1.112632369377764</v>
+        <v>1.212787950543188</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>5.97663434338034</v>
+        <v>2.193114671466901</v>
       </c>
       <c r="L17">
-        <v>0.2775549953825021</v>
+        <v>0.1941044655401782</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6279500149392092</v>
+        <v>1.200558205037979</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2362228098845804</v>
+        <v>0.1939928507872963</v>
       </c>
       <c r="D18">
-        <v>0.02504761374598274</v>
+        <v>0.04362402980011382</v>
       </c>
       <c r="E18">
-        <v>0.1914606269773103</v>
+        <v>0.1436100723548677</v>
       </c>
       <c r="F18">
-        <v>1.239629184601085</v>
+        <v>1.241295958750214</v>
       </c>
       <c r="G18">
-        <v>1.163449550796088</v>
+        <v>1.111789999174079</v>
       </c>
       <c r="H18">
-        <v>0.6602852885079926</v>
+        <v>1.049037358729407</v>
       </c>
       <c r="I18">
-        <v>1.090365768959543</v>
+        <v>1.210047987848498</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5.822936875539597</v>
+        <v>2.15072408700911</v>
       </c>
       <c r="L18">
-        <v>0.270851654863776</v>
+        <v>0.192710524967481</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6338976735085708</v>
+        <v>1.203148429033099</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2343342877947379</v>
+        <v>0.1935621182829408</v>
       </c>
       <c r="D19">
-        <v>0.02504292912092509</v>
+        <v>0.04362211287618933</v>
       </c>
       <c r="E19">
-        <v>0.1898899602657167</v>
+        <v>0.1432726146511243</v>
       </c>
       <c r="F19">
-        <v>1.230661512114651</v>
+        <v>1.240065933816851</v>
       </c>
       <c r="G19">
-        <v>1.154825151501655</v>
+        <v>1.110655853821186</v>
       </c>
       <c r="H19">
-        <v>0.6569684547290251</v>
+        <v>1.048981073406111</v>
       </c>
       <c r="I19">
-        <v>1.082885111035949</v>
+        <v>1.20913435944513</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5.770987802903846</v>
+        <v>2.136377562106873</v>
       </c>
       <c r="L19">
-        <v>0.2685916132045492</v>
+        <v>0.1922404329266811</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6359376061277757</v>
+        <v>1.204034362639447</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.242853486184103</v>
+        <v>0.1955056124378416</v>
       </c>
       <c r="D20">
-        <v>0.0250653004634529</v>
+        <v>0.04363116592786298</v>
       </c>
       <c r="E20">
-        <v>0.196981093011658</v>
+        <v>0.144796096036977</v>
       </c>
       <c r="F20">
-        <v>1.271283117262854</v>
+        <v>1.245661817632424</v>
       </c>
       <c r="G20">
-        <v>1.193917016650317</v>
+        <v>1.115819363210875</v>
       </c>
       <c r="H20">
-        <v>0.6720404429614177</v>
+        <v>1.049276637279291</v>
       </c>
       <c r="I20">
-        <v>1.116781633285967</v>
+        <v>1.213301746534441</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>6.005124214112698</v>
+        <v>2.200963153730584</v>
       </c>
       <c r="L20">
-        <v>0.2788002766636879</v>
+        <v>0.1943633424887423</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6268617851855538</v>
+        <v>1.200083053959062</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2718658767688851</v>
+        <v>0.20212544708167</v>
       </c>
       <c r="D21">
-        <v>0.02516452205702535</v>
+        <v>0.04366902270509243</v>
       </c>
       <c r="E21">
-        <v>0.2212392973375472</v>
+        <v>0.1500003372183443</v>
       </c>
       <c r="F21">
-        <v>1.412747633041178</v>
+        <v>1.265527478671316</v>
       </c>
       <c r="G21">
-        <v>1.330528992914424</v>
+        <v>1.134217246128543</v>
       </c>
       <c r="H21">
-        <v>0.7253944174561298</v>
+        <v>1.051010807231677</v>
       </c>
       <c r="I21">
-        <v>1.235022560903161</v>
+        <v>1.228285445958704</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>6.798727081806362</v>
+        <v>2.41838874518993</v>
       </c>
       <c r="L21">
-        <v>0.3138213091283006</v>
+        <v>0.2016265902404228</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5982649361615273</v>
+        <v>1.18742847374596</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2911529427555308</v>
+        <v>0.2065187440495606</v>
       </c>
       <c r="D22">
-        <v>0.02524926905691771</v>
+        <v>0.04369927725776535</v>
       </c>
       <c r="E22">
-        <v>0.2374562914436567</v>
+        <v>0.1534654707811001</v>
       </c>
       <c r="F22">
-        <v>1.50933366074257</v>
+        <v>1.279307867106468</v>
       </c>
       <c r="G22">
-        <v>1.424188991879475</v>
+        <v>1.14702809020045</v>
       </c>
       <c r="H22">
-        <v>0.7624950182818679</v>
+        <v>1.052698164763882</v>
       </c>
       <c r="I22">
-        <v>1.315905233530472</v>
+        <v>1.238813093824419</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>7.323387082116597</v>
+        <v>2.560802009675285</v>
       </c>
       <c r="L22">
-        <v>0.3373146488633267</v>
+        <v>0.2064712285825152</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5810848860847528</v>
+        <v>1.179621260121053</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2808268413594988</v>
+        <v>0.2041678542607315</v>
       </c>
       <c r="D23">
-        <v>0.02520208030496462</v>
+        <v>0.04368262740190687</v>
       </c>
       <c r="E23">
-        <v>0.2287650587306942</v>
+        <v>0.1516102141028597</v>
       </c>
       <c r="F23">
-        <v>1.457377648139627</v>
+        <v>1.271879839668273</v>
       </c>
       <c r="G23">
-        <v>1.373770069726135</v>
+        <v>1.140118404682767</v>
       </c>
       <c r="H23">
-        <v>0.7424755627598358</v>
+        <v>1.05174679716589</v>
       </c>
       <c r="I23">
-        <v>1.272382327969851</v>
+        <v>1.233126840534979</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>7.042761805329462</v>
+        <v>2.484765046222265</v>
       </c>
       <c r="L23">
-        <v>0.3247158812920077</v>
+        <v>0.2038765913195562</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5901095910800009</v>
+        <v>1.183745709431349</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2423842754848664</v>
+        <v>0.1953985460864658</v>
       </c>
       <c r="D24">
-        <v>0.02506398605541094</v>
+        <v>0.04363064070457412</v>
       </c>
       <c r="E24">
-        <v>0.1965901500103371</v>
+        <v>0.1447121121127211</v>
       </c>
       <c r="F24">
-        <v>1.269034642283188</v>
+        <v>1.245350524353626</v>
       </c>
       <c r="G24">
-        <v>1.191751542552339</v>
+        <v>1.115531872961668</v>
       </c>
       <c r="H24">
-        <v>0.6712030524027455</v>
+        <v>1.049257622295499</v>
       </c>
       <c r="I24">
-        <v>1.114904692703476</v>
+        <v>1.213069207772065</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>5.992242454489769</v>
+        <v>2.197414802752121</v>
       </c>
       <c r="L24">
-        <v>0.2782371148182818</v>
+        <v>0.1942462722115152</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6273532831422486</v>
+        <v>1.200297704239325</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2020924108292945</v>
+        <v>0.1862276927170967</v>
       </c>
       <c r="D25">
-        <v>0.02498839624361082</v>
+        <v>0.04359844471111529</v>
       </c>
       <c r="E25">
-        <v>0.1631911969786159</v>
+        <v>0.1375449137789175</v>
       </c>
       <c r="F25">
-        <v>1.08099821822492</v>
+        <v>1.220131415021442</v>
       </c>
       <c r="G25">
-        <v>1.011395612683614</v>
+        <v>1.092358098250585</v>
       </c>
       <c r="H25">
-        <v>0.6026029812788352</v>
+        <v>1.048940608978825</v>
       </c>
       <c r="I25">
-        <v>0.9582637703710049</v>
+        <v>1.194568667089527</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>4.87967316145</v>
+        <v>1.888837073798356</v>
       </c>
       <c r="L25">
-        <v>0.230278607523104</v>
+        <v>0.1842753443662275</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6734072926210573</v>
+        <v>1.220139351523045</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_51/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1797227757417943</v>
+        <v>0.1732096245728343</v>
       </c>
       <c r="D2">
-        <v>0.0435955048535881</v>
+        <v>0.02498485333438438</v>
       </c>
       <c r="E2">
-        <v>0.1325008509881194</v>
+        <v>0.1394726866617084</v>
       </c>
       <c r="F2">
-        <v>1.204450486139535</v>
+        <v>0.9529634660155182</v>
       </c>
       <c r="G2">
-        <v>1.078133462989925</v>
+        <v>0.8895679237845826</v>
       </c>
       <c r="H2">
-        <v>1.050730821794829</v>
+        <v>0.5579319985719167</v>
       </c>
       <c r="I2">
-        <v>1.183615314825666</v>
+        <v>0.8520707632873723</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.662797164383733</v>
+        <v>4.072991795315147</v>
       </c>
       <c r="L2">
-        <v>0.1772876741929679</v>
+        <v>0.196419242003472</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.236459234024103</v>
+        <v>0.7117908073067909</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1754687248507025</v>
+        <v>0.154025269898483</v>
       </c>
       <c r="D3">
-        <v>0.04360659440974857</v>
+        <v>0.02501059954771989</v>
       </c>
       <c r="E3">
-        <v>0.1292269150301415</v>
+        <v>0.1238330987932734</v>
       </c>
       <c r="F3">
-        <v>1.195608402036711</v>
+        <v>0.87155371145532</v>
       </c>
       <c r="G3">
-        <v>1.070244041303539</v>
+        <v>0.8126286456804337</v>
       </c>
       <c r="H3">
-        <v>1.053200183601831</v>
+        <v>0.5307389919365306</v>
       </c>
       <c r="I3">
-        <v>1.177843412716641</v>
+        <v>0.784826194529991</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.510329207646521</v>
+        <v>3.531823694617458</v>
       </c>
       <c r="L3">
-        <v>0.1727706243253593</v>
+        <v>0.1741948988044655</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.248587195801505</v>
+        <v>0.7403382058645036</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1729329611819423</v>
+        <v>0.1424089290117792</v>
       </c>
       <c r="D4">
-        <v>0.04361990373555358</v>
+        <v>0.02503911374766332</v>
       </c>
       <c r="E4">
-        <v>0.1272877263987304</v>
+        <v>0.1144122124001399</v>
       </c>
       <c r="F4">
-        <v>1.191054737370393</v>
+        <v>0.8238741007669148</v>
       </c>
       <c r="G4">
-        <v>1.066257283302733</v>
+        <v>0.7678004054103411</v>
       </c>
       <c r="H4">
-        <v>1.055334052207968</v>
+        <v>0.515395346822288</v>
       </c>
       <c r="I4">
-        <v>1.175109838312117</v>
+        <v>0.745576954923969</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.417070023065776</v>
+        <v>3.201604301825398</v>
       </c>
       <c r="L4">
-        <v>0.1701043161996765</v>
+        <v>0.1608511448638197</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.256560830671638</v>
+        <v>0.7590402017985696</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1719188298279164</v>
+        <v>0.1377121821573439</v>
       </c>
       <c r="D5">
-        <v>0.04362696990906656</v>
+        <v>0.02505377786010499</v>
       </c>
       <c r="E5">
-        <v>0.1265153371281009</v>
+        <v>0.1106144400996207</v>
       </c>
       <c r="F5">
-        <v>1.189418574994605</v>
+        <v>0.8049778530523071</v>
       </c>
       <c r="G5">
-        <v>1.064847430968072</v>
+        <v>0.7500896161577373</v>
       </c>
       <c r="H5">
-        <v>1.056358695817693</v>
+        <v>0.5094600024946203</v>
       </c>
       <c r="I5">
-        <v>1.174199151557183</v>
+        <v>0.7300554739746161</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.379156807389847</v>
+        <v>3.067465871573063</v>
       </c>
       <c r="L5">
-        <v>0.1690446634995126</v>
+        <v>0.1554820242083252</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.259942714423005</v>
+        <v>0.7669459626553419</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1717515957463718</v>
+        <v>0.1369344152275147</v>
       </c>
       <c r="D6">
-        <v>0.04362824268430998</v>
+        <v>0.02505639268307647</v>
       </c>
       <c r="E6">
-        <v>0.1263881599602072</v>
+        <v>0.1099861946548231</v>
       </c>
       <c r="F6">
-        <v>1.189160129785805</v>
+        <v>0.8018710745426745</v>
       </c>
       <c r="G6">
-        <v>1.064626274834623</v>
+        <v>0.7471810103509569</v>
       </c>
       <c r="H6">
-        <v>1.056538196180028</v>
+        <v>0.5084929673502927</v>
       </c>
       <c r="I6">
-        <v>1.174060194592499</v>
+        <v>0.7275055901889758</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.372866850861215</v>
+        <v>3.045215685894163</v>
       </c>
       <c r="L6">
-        <v>0.1688703312619424</v>
+        <v>0.1545944204320051</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.260512281433996</v>
+        <v>0.7682755978544122</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1729192064027956</v>
+        <v>0.1423454422474748</v>
       </c>
       <c r="D7">
-        <v>0.04361999237159608</v>
+        <v>0.02503929937054039</v>
       </c>
       <c r="E7">
-        <v>0.1272772374459343</v>
+        <v>0.1143608326564838</v>
       </c>
       <c r="F7">
-        <v>1.19103178364098</v>
+        <v>0.823617157974823</v>
       </c>
       <c r="G7">
-        <v>1.066237400966628</v>
+        <v>0.7675593591212362</v>
       </c>
       <c r="H7">
-        <v>1.055347243346247</v>
+        <v>0.5153140450538132</v>
       </c>
       <c r="I7">
-        <v>1.175096734136353</v>
+        <v>0.7453657628164834</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.416558343833515</v>
+        <v>3.199793641921929</v>
       </c>
       <c r="L7">
-        <v>0.1700899165578207</v>
+        <v>0.1607784668066117</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.256605903145264</v>
+        <v>0.7591456830180192</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1782401782457157</v>
+        <v>0.1665585662053104</v>
       </c>
       <c r="D8">
-        <v>0.043597984053104</v>
+        <v>0.02499099611856082</v>
       </c>
       <c r="E8">
-        <v>0.1313572480471592</v>
+        <v>0.1340396466368574</v>
       </c>
       <c r="F8">
-        <v>1.201219653845612</v>
+        <v>0.9243858151023545</v>
       </c>
       <c r="G8">
-        <v>1.075234746704368</v>
+        <v>0.862507548560302</v>
       </c>
       <c r="H8">
-        <v>1.051453910802692</v>
+        <v>0.548260765343997</v>
       </c>
       <c r="I8">
-        <v>1.181456649605714</v>
+        <v>0.8284367451869201</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.610152684091133</v>
+        <v>3.885913520308122</v>
       </c>
       <c r="L8">
-        <v>0.1757079113993285</v>
+        <v>0.1886889753266559</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.240531595194184</v>
+        <v>0.7213837175774529</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1892784446874174</v>
+        <v>0.2155288601068861</v>
       </c>
       <c r="D9">
-        <v>0.04360608034268765</v>
+        <v>0.02500510765710828</v>
       </c>
       <c r="E9">
-        <v>0.1399228524862224</v>
+        <v>0.1742903919037246</v>
       </c>
       <c r="F9">
-        <v>1.228175713859628</v>
+        <v>1.142558569576423</v>
       </c>
       <c r="G9">
-        <v>1.099720704628723</v>
+        <v>1.070271469648119</v>
       </c>
       <c r="H9">
-        <v>1.048732201971163</v>
+        <v>0.6247238951197005</v>
       </c>
       <c r="I9">
-        <v>1.200384275800431</v>
+        <v>1.009468939990342</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.992600196344597</v>
+        <v>5.252177807798944</v>
       </c>
       <c r="L9">
-        <v>0.1875787959966431</v>
+        <v>0.2461817113464377</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.213190026043563</v>
+        <v>0.6571623303144634</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1977560415493258</v>
+        <v>0.2527145086235834</v>
       </c>
       <c r="D10">
-        <v>0.04364288194835453</v>
+        <v>0.02509510014053262</v>
       </c>
       <c r="E10">
-        <v>0.1465627963920042</v>
+        <v>0.2052075012054289</v>
       </c>
       <c r="F10">
-        <v>1.252282289933135</v>
+        <v>1.318832923021375</v>
       </c>
       <c r="G10">
-        <v>1.121939975585889</v>
+        <v>1.239755986547067</v>
       </c>
       <c r="H10">
-        <v>1.049746282722367</v>
+        <v>0.6898309841251944</v>
       </c>
       <c r="I10">
-        <v>1.218265327799813</v>
+        <v>1.156492936197168</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.275299330270911</v>
+        <v>6.275491825387348</v>
       </c>
       <c r="L10">
-        <v>0.1968271391290415</v>
+        <v>0.2906598050564355</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.195648712027293</v>
+        <v>0.6167518308031674</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2016925905216738</v>
+        <v>0.2699676992868234</v>
       </c>
       <c r="D11">
-        <v>0.04366624766657878</v>
+        <v>0.02515697622248325</v>
       </c>
       <c r="E11">
-        <v>0.1496593895848974</v>
+        <v>0.2196471183586084</v>
       </c>
       <c r="F11">
-        <v>1.264193836553318</v>
+        <v>1.403349197561525</v>
       </c>
       <c r="G11">
-        <v>1.132979332253342</v>
+        <v>1.321431373462588</v>
       </c>
       <c r="H11">
-        <v>1.050866180750546</v>
+        <v>0.7218116295219943</v>
       </c>
       <c r="I11">
-        <v>1.227271753363482</v>
+        <v>1.22715837138702</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.404281518418713</v>
+        <v>6.746971162217449</v>
       </c>
       <c r="L11">
-        <v>0.2011502561716867</v>
+        <v>0.3115181870659427</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.188221475815354</v>
+        <v>0.6000320539087269</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2031947485272951</v>
+        <v>0.2765563748689033</v>
       </c>
       <c r="D12">
-        <v>0.04367604204119147</v>
+        <v>0.02518378473299521</v>
       </c>
       <c r="E12">
-        <v>0.1508429568416432</v>
+        <v>0.2251766361776149</v>
       </c>
       <c r="F12">
-        <v>1.268841161941708</v>
+        <v>1.436055042699309</v>
       </c>
       <c r="G12">
-        <v>1.137294602034927</v>
+        <v>1.35310297780137</v>
       </c>
       <c r="H12">
-        <v>1.05138527846097</v>
+        <v>0.7343010647907136</v>
       </c>
       <c r="I12">
-        <v>1.230808329492945</v>
+        <v>1.25453006199875</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.453178061720848</v>
+        <v>6.926524112721552</v>
       </c>
       <c r="L12">
-        <v>0.2028040801581454</v>
+        <v>0.3195194265258721</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.18548842081367</v>
+        <v>0.5939579626206637</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2028707222923174</v>
+        <v>0.2751348124709807</v>
       </c>
       <c r="D13">
-        <v>0.04367389065857097</v>
+        <v>0.02517785436441855</v>
       </c>
       <c r="E13">
-        <v>0.1505875669401888</v>
+        <v>0.2239828889741347</v>
       </c>
       <c r="F13">
-        <v>1.267834186466047</v>
+        <v>1.428978715540268</v>
       </c>
       <c r="G13">
-        <v>1.136359216707774</v>
+        <v>1.34624744399764</v>
       </c>
       <c r="H13">
-        <v>1.051269250574677</v>
+        <v>0.7315937139377695</v>
       </c>
       <c r="I13">
-        <v>1.230041049187179</v>
+        <v>1.248606688696299</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.442644939572574</v>
+        <v>6.887806419839592</v>
       </c>
       <c r="L13">
-        <v>0.2024471532908194</v>
+        <v>0.3177914350780213</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.186073497498846</v>
+        <v>0.5952543738089275</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2018159442599199</v>
+        <v>0.2705086047239718</v>
       </c>
       <c r="D14">
-        <v>0.04366703452650356</v>
+        <v>0.02515911177871288</v>
       </c>
       <c r="E14">
-        <v>0.1497565427184071</v>
+        <v>0.2201007553485681</v>
       </c>
       <c r="F14">
-        <v>1.264573431248309</v>
+        <v>1.40602538939298</v>
       </c>
       <c r="G14">
-        <v>1.133331643064622</v>
+        <v>1.324021608880685</v>
       </c>
       <c r="H14">
-        <v>1.050906981154668</v>
+        <v>0.7228313066310363</v>
       </c>
       <c r="I14">
-        <v>1.2275601801025</v>
+        <v>1.229397571390095</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.408303194076154</v>
+        <v>6.761721819715774</v>
       </c>
       <c r="L14">
-        <v>0.2012859810828758</v>
+        <v>0.312174319410488</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.187995032591282</v>
+        <v>0.5995270671592294</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2011713551705867</v>
+        <v>0.2676823289188945</v>
       </c>
       <c r="D15">
-        <v>0.04366295799954756</v>
+        <v>0.02514808311312322</v>
       </c>
       <c r="E15">
-        <v>0.149248943571429</v>
+        <v>0.2177310902775318</v>
       </c>
       <c r="F15">
-        <v>1.262593946554531</v>
+        <v>1.392059634810039</v>
       </c>
       <c r="G15">
-        <v>1.131494763030645</v>
+        <v>1.31050706028222</v>
       </c>
       <c r="H15">
-        <v>1.050697463979816</v>
+        <v>0.7175146779225372</v>
       </c>
       <c r="I15">
-        <v>1.226057008252994</v>
+        <v>1.217713304868397</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.387274859085665</v>
+        <v>6.684628309607206</v>
       </c>
       <c r="L15">
-        <v>0.200576913541056</v>
+        <v>0.3087474391439002</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.189182380180384</v>
+        <v>0.602178296103645</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1975003862764879</v>
+        <v>0.2515943217808001</v>
       </c>
       <c r="D16">
-        <v>0.04364148769952791</v>
+        <v>0.02509150775117774</v>
       </c>
       <c r="E16">
-        <v>0.1463619586457767</v>
+        <v>0.2042720205071333</v>
       </c>
       <c r="F16">
-        <v>1.251522928390898</v>
+        <v>1.313403250653508</v>
       </c>
       <c r="G16">
-        <v>1.1212373550199</v>
+        <v>1.234517449467432</v>
       </c>
       <c r="H16">
-        <v>1.049686373854627</v>
+        <v>0.6877917897186308</v>
       </c>
       <c r="I16">
-        <v>1.217694340581787</v>
+        <v>1.151956587105602</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.266877621246294</v>
+        <v>6.244812586122464</v>
       </c>
       <c r="L16">
-        <v>0.1965469536694684</v>
+        <v>0.2893102979769395</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.196145218589677</v>
+        <v>0.6178794875131643</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1952688403000735</v>
+        <v>0.2418158360280671</v>
       </c>
       <c r="D17">
-        <v>0.04363000846613119</v>
+        <v>0.02506240641697488</v>
       </c>
       <c r="E17">
-        <v>0.144610378157374</v>
+        <v>0.1961165902364996</v>
       </c>
       <c r="F17">
-        <v>1.244973868907977</v>
+        <v>1.266312389074301</v>
       </c>
       <c r="G17">
-        <v>1.115184056338222</v>
+        <v>1.18913003822928</v>
       </c>
       <c r="H17">
-        <v>1.049235004147192</v>
+        <v>0.6701896954444067</v>
       </c>
       <c r="I17">
-        <v>1.212787950543188</v>
+        <v>1.112632369377764</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.193114671466901</v>
+        <v>5.976634343380454</v>
       </c>
       <c r="L17">
-        <v>0.1941044655401782</v>
+        <v>0.2775549953825589</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.200558205037979</v>
+        <v>0.6279500149392021</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1939928507872963</v>
+        <v>0.2362228098847083</v>
       </c>
       <c r="D18">
-        <v>0.04362402980011382</v>
+        <v>0.02504761374608577</v>
       </c>
       <c r="E18">
-        <v>0.1436100723548677</v>
+        <v>0.1914606269773174</v>
       </c>
       <c r="F18">
-        <v>1.241295958750214</v>
+        <v>1.239629184601071</v>
       </c>
       <c r="G18">
-        <v>1.111789999174079</v>
+        <v>1.163449550796031</v>
       </c>
       <c r="H18">
-        <v>1.049037358729407</v>
+        <v>0.6602852885081347</v>
       </c>
       <c r="I18">
-        <v>1.210047987848498</v>
+        <v>1.090365768959529</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.15072408700911</v>
+        <v>5.822936875539597</v>
       </c>
       <c r="L18">
-        <v>0.192710524967481</v>
+        <v>0.2708516548636624</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.203148429033099</v>
+        <v>0.6338976735085566</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1935621182829408</v>
+        <v>0.2343342877945673</v>
       </c>
       <c r="D19">
-        <v>0.04362211287618933</v>
+        <v>0.02504292912104233</v>
       </c>
       <c r="E19">
-        <v>0.1432726146511243</v>
+        <v>0.1898899602657451</v>
       </c>
       <c r="F19">
-        <v>1.240065933816851</v>
+        <v>1.230661512114636</v>
       </c>
       <c r="G19">
-        <v>1.110655853821186</v>
+        <v>1.154825151501711</v>
       </c>
       <c r="H19">
-        <v>1.048981073406111</v>
+        <v>0.6569684547290251</v>
       </c>
       <c r="I19">
-        <v>1.20913435944513</v>
+        <v>1.082885111035949</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.136377562106873</v>
+        <v>5.770987802903846</v>
       </c>
       <c r="L19">
-        <v>0.1922404329266811</v>
+        <v>0.268591613204535</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.204034362639447</v>
+        <v>0.6359376061277189</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1955056124378416</v>
+        <v>0.2428534861843872</v>
       </c>
       <c r="D20">
-        <v>0.04363116592786298</v>
+        <v>0.02506530046346001</v>
       </c>
       <c r="E20">
-        <v>0.144796096036977</v>
+        <v>0.1969810930116651</v>
       </c>
       <c r="F20">
-        <v>1.245661817632424</v>
+        <v>1.27128311726284</v>
       </c>
       <c r="G20">
-        <v>1.115819363210875</v>
+        <v>1.193917016650289</v>
       </c>
       <c r="H20">
-        <v>1.049276637279291</v>
+        <v>0.6720404429614177</v>
       </c>
       <c r="I20">
-        <v>1.213301746534441</v>
+        <v>1.116781633285925</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.200963153730584</v>
+        <v>6.005124214112641</v>
       </c>
       <c r="L20">
-        <v>0.1943633424887423</v>
+        <v>0.2788002766636595</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.200083053959062</v>
+        <v>0.626861785185568</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.20212544708167</v>
+        <v>0.2718658767688567</v>
       </c>
       <c r="D21">
-        <v>0.04366902270509243</v>
+        <v>0.02516452205702535</v>
       </c>
       <c r="E21">
-        <v>0.1500003372183443</v>
+        <v>0.2212392973375543</v>
       </c>
       <c r="F21">
-        <v>1.265527478671316</v>
+        <v>1.412747633041164</v>
       </c>
       <c r="G21">
-        <v>1.134217246128543</v>
+        <v>1.330528992914452</v>
       </c>
       <c r="H21">
-        <v>1.051010807231677</v>
+        <v>0.7253944174561298</v>
       </c>
       <c r="I21">
-        <v>1.228285445958704</v>
+        <v>1.235022560903161</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.41838874518993</v>
+        <v>6.798727081806419</v>
       </c>
       <c r="L21">
-        <v>0.2016265902404228</v>
+        <v>0.3138213091283149</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.18742847374596</v>
+        <v>0.5982649361615202</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2065187440495606</v>
+        <v>0.2911529427554171</v>
       </c>
       <c r="D22">
-        <v>0.04369927725776535</v>
+        <v>0.02524926905692837</v>
       </c>
       <c r="E22">
-        <v>0.1534654707811001</v>
+        <v>0.2374562914436567</v>
       </c>
       <c r="F22">
-        <v>1.279307867106468</v>
+        <v>1.50933366074257</v>
       </c>
       <c r="G22">
-        <v>1.14702809020045</v>
+        <v>1.424188991879532</v>
       </c>
       <c r="H22">
-        <v>1.052698164763882</v>
+        <v>0.7624950182818679</v>
       </c>
       <c r="I22">
-        <v>1.238813093824419</v>
+        <v>1.315905233530472</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.560802009675285</v>
+        <v>7.32338708211654</v>
       </c>
       <c r="L22">
-        <v>0.2064712285825152</v>
+        <v>0.3373146488632983</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.179621260121053</v>
+        <v>0.581084886084767</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2041678542607315</v>
+        <v>0.2808268413597546</v>
       </c>
       <c r="D23">
-        <v>0.04368262740190687</v>
+        <v>0.02520208030496818</v>
       </c>
       <c r="E23">
-        <v>0.1516102141028597</v>
+        <v>0.2287650587306729</v>
       </c>
       <c r="F23">
-        <v>1.271879839668273</v>
+        <v>1.457377648139655</v>
       </c>
       <c r="G23">
-        <v>1.140118404682767</v>
+        <v>1.373770069726191</v>
       </c>
       <c r="H23">
-        <v>1.05174679716589</v>
+        <v>0.7424755627598643</v>
       </c>
       <c r="I23">
-        <v>1.233126840534979</v>
+        <v>1.272382327969837</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.484765046222265</v>
+        <v>7.042761805329405</v>
       </c>
       <c r="L23">
-        <v>0.2038765913195562</v>
+        <v>0.3247158812919935</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.183745709431349</v>
+        <v>0.590109591080008</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1953985460864658</v>
+        <v>0.242384275484298</v>
       </c>
       <c r="D24">
-        <v>0.04363064070457412</v>
+        <v>0.02506398605541449</v>
       </c>
       <c r="E24">
-        <v>0.1447121121127211</v>
+        <v>0.1965901500103229</v>
       </c>
       <c r="F24">
-        <v>1.245350524353626</v>
+        <v>1.269034642283202</v>
       </c>
       <c r="G24">
-        <v>1.115531872961668</v>
+        <v>1.191751542552282</v>
       </c>
       <c r="H24">
-        <v>1.049257622295499</v>
+        <v>0.6712030524028592</v>
       </c>
       <c r="I24">
-        <v>1.213069207772065</v>
+        <v>1.114904692703476</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.197414802752121</v>
+        <v>5.992242454489883</v>
       </c>
       <c r="L24">
-        <v>0.1942462722115152</v>
+        <v>0.2782371148182676</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.200297704239325</v>
+        <v>0.6273532831422415</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1862276927170967</v>
+        <v>0.2020924108292803</v>
       </c>
       <c r="D25">
-        <v>0.04359844471111529</v>
+        <v>0.02498839624361082</v>
       </c>
       <c r="E25">
-        <v>0.1375449137789175</v>
+        <v>0.1631911969786088</v>
       </c>
       <c r="F25">
-        <v>1.220131415021442</v>
+        <v>1.08099821822492</v>
       </c>
       <c r="G25">
-        <v>1.092358098250585</v>
+        <v>1.011395612683714</v>
       </c>
       <c r="H25">
-        <v>1.048940608978825</v>
+        <v>0.6026029812788352</v>
       </c>
       <c r="I25">
-        <v>1.194568667089527</v>
+        <v>0.9582637703710191</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.888837073798356</v>
+        <v>4.87967316145</v>
       </c>
       <c r="L25">
-        <v>0.1842753443662275</v>
+        <v>0.2302786075231751</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.220139351523045</v>
+        <v>0.6734072926210501</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_51/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1732096245728343</v>
+        <v>0.03272925586875886</v>
       </c>
       <c r="D2">
-        <v>0.02498485333438438</v>
+        <v>0.03294986989811832</v>
       </c>
       <c r="E2">
-        <v>0.1394726866617084</v>
+        <v>0.2313684486054797</v>
       </c>
       <c r="F2">
-        <v>0.9529634660155182</v>
+        <v>0.876290224990754</v>
       </c>
       <c r="G2">
-        <v>0.8895679237845826</v>
+        <v>0.8023981094858499</v>
       </c>
       <c r="H2">
-        <v>0.5579319985719167</v>
+        <v>0.0008798006162944461</v>
       </c>
       <c r="I2">
-        <v>0.8520707632873723</v>
+        <v>0.009339073458481284</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5263387044183219</v>
       </c>
       <c r="K2">
-        <v>4.072991795315147</v>
+        <v>0.6823376383388151</v>
       </c>
       <c r="L2">
-        <v>0.196419242003472</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>2.987264033556784</v>
       </c>
       <c r="N2">
-        <v>0.7117908073067909</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.9664957234755036</v>
+      </c>
+      <c r="P2">
+        <v>0.7538786407201066</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.154025269898483</v>
+        <v>0.02800228036205255</v>
       </c>
       <c r="D3">
-        <v>0.02501059954771989</v>
+        <v>0.03095329687043247</v>
       </c>
       <c r="E3">
-        <v>0.1238330987932734</v>
+        <v>0.2038908075754478</v>
       </c>
       <c r="F3">
-        <v>0.87155371145532</v>
+        <v>0.8000455170456036</v>
       </c>
       <c r="G3">
-        <v>0.8126286456804337</v>
+        <v>0.7315920638055928</v>
       </c>
       <c r="H3">
-        <v>0.5307389919365306</v>
+        <v>0.0002168106152751204</v>
       </c>
       <c r="I3">
-        <v>0.784826194529991</v>
+        <v>0.006169813223098952</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4975905596722896</v>
       </c>
       <c r="K3">
-        <v>3.531823694617458</v>
+        <v>0.6270051923279425</v>
       </c>
       <c r="L3">
-        <v>0.1741948988044655</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>2.597942438735743</v>
       </c>
       <c r="N3">
-        <v>0.7403382058645036</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.841488799845159</v>
+      </c>
+      <c r="P3">
+        <v>0.7802096536628866</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1424089290117792</v>
+        <v>0.02505256233218489</v>
       </c>
       <c r="D4">
-        <v>0.02503911374766332</v>
+        <v>0.02971776510059954</v>
       </c>
       <c r="E4">
-        <v>0.1144122124001399</v>
+        <v>0.187072827261801</v>
       </c>
       <c r="F4">
-        <v>0.8238741007669148</v>
+        <v>0.7538478159830788</v>
       </c>
       <c r="G4">
-        <v>0.7678004054103411</v>
+        <v>0.6886323328847226</v>
       </c>
       <c r="H4">
-        <v>0.515395346822288</v>
+        <v>2.746158211386351E-05</v>
       </c>
       <c r="I4">
-        <v>0.745576954923969</v>
+        <v>0.004533898924637292</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4802793760263029</v>
       </c>
       <c r="K4">
-        <v>3.201604301825398</v>
+        <v>0.5932133302507125</v>
       </c>
       <c r="L4">
-        <v>0.1608511448638197</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2.358487265934087</v>
       </c>
       <c r="N4">
-        <v>0.7590402017985696</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.764739580889966</v>
+      </c>
+      <c r="P4">
+        <v>0.7970045446629364</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1377121821573439</v>
+        <v>0.02361423167471344</v>
       </c>
       <c r="D5">
-        <v>0.02505377786010499</v>
+        <v>0.02924864278372752</v>
       </c>
       <c r="E5">
-        <v>0.1106144400996207</v>
+        <v>0.1802774643138285</v>
       </c>
       <c r="F5">
-        <v>0.8049778530523071</v>
+        <v>0.7343106942992321</v>
       </c>
       <c r="G5">
-        <v>0.7500896161577373</v>
+        <v>0.670288954014751</v>
       </c>
       <c r="H5">
-        <v>0.5094600024946203</v>
+        <v>1.630826904408522E-06</v>
       </c>
       <c r="I5">
-        <v>0.7300554739746161</v>
+        <v>0.003989765384159849</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.47282397860873</v>
       </c>
       <c r="K5">
-        <v>3.067465871573063</v>
+        <v>0.5784994307603526</v>
       </c>
       <c r="L5">
-        <v>0.1554820242083252</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2.259426141692529</v>
       </c>
       <c r="N5">
-        <v>0.7669459626553419</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.7332455933433621</v>
+      </c>
+      <c r="P5">
+        <v>0.8041090629993093</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1369344152275147</v>
+        <v>0.02310277892615176</v>
       </c>
       <c r="D6">
-        <v>0.02505639268307647</v>
+        <v>0.02921592639297899</v>
       </c>
       <c r="E6">
-        <v>0.1099861946548231</v>
+        <v>0.1792095060612517</v>
       </c>
       <c r="F6">
-        <v>0.8018710745426745</v>
+        <v>0.730034144628668</v>
       </c>
       <c r="G6">
-        <v>0.7471810103509569</v>
+        <v>0.6660861373009936</v>
       </c>
       <c r="H6">
-        <v>0.5084929673502927</v>
+        <v>3.498932641399222E-07</v>
       </c>
       <c r="I6">
-        <v>0.7275055901889758</v>
+        <v>0.003972286442404993</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4710040701676377</v>
       </c>
       <c r="K6">
-        <v>3.045215685894163</v>
+        <v>0.5748590937697813</v>
       </c>
       <c r="L6">
-        <v>0.1545944204320051</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2.241309158602235</v>
       </c>
       <c r="N6">
-        <v>0.7682755978544122</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.7277578360806203</v>
+      </c>
+      <c r="P6">
+        <v>0.8054318121337261</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1423454422474748</v>
+        <v>0.02428423314190553</v>
       </c>
       <c r="D7">
-        <v>0.02503929937054039</v>
+        <v>0.02983583689655234</v>
       </c>
       <c r="E7">
-        <v>0.1143608326564838</v>
+        <v>0.1871452547615036</v>
       </c>
       <c r="F7">
-        <v>0.823617157974823</v>
+        <v>0.7507357356073499</v>
       </c>
       <c r="G7">
-        <v>0.7675593591212362</v>
+        <v>0.6851992601684174</v>
       </c>
       <c r="H7">
-        <v>0.5153140450538132</v>
+        <v>2.627865554583053E-05</v>
       </c>
       <c r="I7">
-        <v>0.7453657628164834</v>
+        <v>0.004696763319508968</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4785742965021029</v>
       </c>
       <c r="K7">
-        <v>3.199793641921929</v>
+        <v>0.589730866831438</v>
       </c>
       <c r="L7">
-        <v>0.1607784668066117</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2.352598376204412</v>
       </c>
       <c r="N7">
-        <v>0.7591456830180192</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.7636083847202357</v>
+      </c>
+      <c r="P7">
+        <v>0.7974790834593399</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1665585662053104</v>
+        <v>0.03009970032096021</v>
       </c>
       <c r="D8">
-        <v>0.02499099611856082</v>
+        <v>0.0324310542274695</v>
       </c>
       <c r="E8">
-        <v>0.1340396466368574</v>
+        <v>0.222098986390364</v>
       </c>
       <c r="F8">
-        <v>0.9243858151023545</v>
+        <v>0.8460688577469</v>
       </c>
       <c r="G8">
-        <v>0.862507548560302</v>
+        <v>0.773623215830014</v>
       </c>
       <c r="H8">
-        <v>0.548260765343997</v>
+        <v>0.0006001027938891124</v>
       </c>
       <c r="I8">
-        <v>0.8284367451869201</v>
+        <v>0.008367451544788018</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.514219859033247</v>
       </c>
       <c r="K8">
-        <v>3.885913520308122</v>
+        <v>0.6588385988240617</v>
       </c>
       <c r="L8">
-        <v>0.1886889753266559</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>2.846986140339766</v>
       </c>
       <c r="N8">
-        <v>0.7213837175774529</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.9224370885371513</v>
+      </c>
+      <c r="P8">
+        <v>0.7633857225765901</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2155288601068861</v>
+        <v>0.0425395124049146</v>
       </c>
       <c r="D9">
-        <v>0.02500510765710828</v>
+        <v>0.03722117172366168</v>
       </c>
       <c r="E9">
-        <v>0.1742903919037246</v>
+        <v>0.2909741471246434</v>
       </c>
       <c r="F9">
-        <v>1.142558569576423</v>
+        <v>1.043809142442512</v>
       </c>
       <c r="G9">
-        <v>1.070271469648119</v>
+        <v>0.9575972450999473</v>
       </c>
       <c r="H9">
-        <v>0.6247238951197005</v>
+        <v>0.003620567637236727</v>
       </c>
       <c r="I9">
-        <v>1.009468939990342</v>
+        <v>0.01806218577890295</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5900401470217105</v>
       </c>
       <c r="K9">
-        <v>5.252177807798944</v>
+        <v>0.8021491958074378</v>
       </c>
       <c r="L9">
-        <v>0.2461817113464377</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>3.822636445945534</v>
       </c>
       <c r="N9">
-        <v>0.6571623303144634</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.235683201280892</v>
+      </c>
+      <c r="P9">
+        <v>0.7009824772824231</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2527145086235834</v>
+        <v>0.05170808096925583</v>
       </c>
       <c r="D10">
-        <v>0.02509510014053262</v>
+        <v>0.04138592328710544</v>
       </c>
       <c r="E10">
-        <v>0.2052075012054289</v>
+        <v>0.3176216651646158</v>
       </c>
       <c r="F10">
-        <v>1.318832923021375</v>
+        <v>1.178886140283311</v>
       </c>
       <c r="G10">
-        <v>1.239755986547067</v>
+        <v>1.080277587295029</v>
       </c>
       <c r="H10">
-        <v>0.6898309841251944</v>
+        <v>0.007064475556763927</v>
       </c>
       <c r="I10">
-        <v>1.156492936197168</v>
+        <v>0.02713242954087391</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6398534979500425</v>
       </c>
       <c r="K10">
-        <v>6.275491825387348</v>
+        <v>0.8972038014896526</v>
       </c>
       <c r="L10">
-        <v>0.2906598050564355</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>4.531616333754982</v>
       </c>
       <c r="N10">
-        <v>0.6167518308031674</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.424961027141734</v>
+      </c>
+      <c r="P10">
+        <v>0.6626753829031387</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2699676992868234</v>
+        <v>0.05976567440895053</v>
       </c>
       <c r="D11">
-        <v>0.02515697622248325</v>
+        <v>0.04950112074336488</v>
       </c>
       <c r="E11">
-        <v>0.2196471183586084</v>
+        <v>0.1589749529351572</v>
       </c>
       <c r="F11">
-        <v>1.403349197561525</v>
+        <v>1.122166754080382</v>
       </c>
       <c r="G11">
-        <v>1.321431373462588</v>
+        <v>1.004621383882508</v>
       </c>
       <c r="H11">
-        <v>0.7218116295219943</v>
+        <v>0.02478710436641407</v>
       </c>
       <c r="I11">
-        <v>1.22715837138702</v>
+        <v>0.0305219884570711</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5968572969025843</v>
       </c>
       <c r="K11">
-        <v>6.746971162217449</v>
+        <v>0.8470146296197782</v>
       </c>
       <c r="L11">
-        <v>0.3115181870659427</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>4.795068366643193</v>
       </c>
       <c r="N11">
-        <v>0.6000320539087269</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.168257388908145</v>
+      </c>
+      <c r="P11">
+        <v>0.6890471271128149</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2765563748689033</v>
+        <v>0.06649515807476547</v>
       </c>
       <c r="D12">
-        <v>0.02518378473299521</v>
+        <v>0.05606222707899633</v>
       </c>
       <c r="E12">
-        <v>0.2251766361776149</v>
+        <v>0.07803993952858512</v>
       </c>
       <c r="F12">
-        <v>1.436055042699309</v>
+        <v>1.05097275965629</v>
       </c>
       <c r="G12">
-        <v>1.35310297780137</v>
+        <v>0.9218902156460871</v>
       </c>
       <c r="H12">
-        <v>0.7343010647907136</v>
+        <v>0.06256515879412916</v>
       </c>
       <c r="I12">
-        <v>1.25453006199875</v>
+        <v>0.03120056036638985</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.5532650012175964</v>
       </c>
       <c r="K12">
-        <v>6.926524112721552</v>
+        <v>0.7906797275138402</v>
       </c>
       <c r="L12">
-        <v>0.3195194265258721</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>4.874665445184405</v>
       </c>
       <c r="N12">
-        <v>0.5939579626206637</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.9371073970210801</v>
+      </c>
+      <c r="P12">
+        <v>0.7301472617845377</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2751348124709807</v>
+        <v>0.07129235031689518</v>
       </c>
       <c r="D13">
-        <v>0.02517785436441855</v>
+        <v>0.06191804303197301</v>
       </c>
       <c r="E13">
-        <v>0.2239828889741347</v>
+        <v>0.05153283233618966</v>
       </c>
       <c r="F13">
-        <v>1.428978715540268</v>
+        <v>0.9599893408858691</v>
       </c>
       <c r="G13">
-        <v>1.34624744399764</v>
+        <v>0.8239556908505961</v>
       </c>
       <c r="H13">
-        <v>0.7315937139377695</v>
+        <v>0.1172948178467408</v>
       </c>
       <c r="I13">
-        <v>1.248606688696299</v>
+        <v>0.02997141575055107</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.5041423447640767</v>
       </c>
       <c r="K13">
-        <v>6.887806419839592</v>
+        <v>0.7212125259372542</v>
       </c>
       <c r="L13">
-        <v>0.3177914350780213</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>4.809201097787593</v>
       </c>
       <c r="N13">
-        <v>0.5952543738089275</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.7126795185752428</v>
+      </c>
+      <c r="P13">
+        <v>0.7840240491871313</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2705086047239718</v>
+        <v>0.07352117863618446</v>
       </c>
       <c r="D14">
-        <v>0.02515911177871288</v>
+        <v>0.06580049354329276</v>
       </c>
       <c r="E14">
-        <v>0.2201007553485681</v>
+        <v>0.06496198695581512</v>
       </c>
       <c r="F14">
-        <v>1.40602538939298</v>
+        <v>0.8873094758065463</v>
       </c>
       <c r="G14">
-        <v>1.324021608880685</v>
+        <v>0.748634324126769</v>
       </c>
       <c r="H14">
-        <v>0.7228313066310363</v>
+        <v>0.1659282608397206</v>
       </c>
       <c r="I14">
-        <v>1.229397571390095</v>
+        <v>0.02835372779313516</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.4672477694322481</v>
       </c>
       <c r="K14">
-        <v>6.761721819715774</v>
+        <v>0.6663428842455588</v>
       </c>
       <c r="L14">
-        <v>0.312174319410488</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>4.696557434797114</v>
       </c>
       <c r="N14">
-        <v>0.5995270671592294</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.5632694423804523</v>
+      </c>
+      <c r="P14">
+        <v>0.8285614912182098</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2676823289188945</v>
+        <v>0.07316277329393728</v>
       </c>
       <c r="D15">
-        <v>0.02514808311312322</v>
+        <v>0.06656129766635388</v>
       </c>
       <c r="E15">
-        <v>0.2177310902775318</v>
+        <v>0.07206029168076711</v>
       </c>
       <c r="F15">
-        <v>1.392059634810039</v>
+        <v>0.8644567760799191</v>
       </c>
       <c r="G15">
-        <v>1.31050706028222</v>
+        <v>0.7258974764545485</v>
       </c>
       <c r="H15">
-        <v>0.7175146779225372</v>
+        <v>0.1781741915948771</v>
       </c>
       <c r="I15">
-        <v>1.217713304868397</v>
+        <v>0.02762861642127312</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4565355943659029</v>
       </c>
       <c r="K15">
-        <v>6.684628309607206</v>
+        <v>0.6490627853654942</v>
       </c>
       <c r="L15">
-        <v>0.3087474391439002</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4.636407590130204</v>
       </c>
       <c r="N15">
-        <v>0.602178296103645</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.5254225247970581</v>
+      </c>
+      <c r="P15">
+        <v>0.8409190896639984</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2515943217808001</v>
+        <v>0.06748055949141474</v>
       </c>
       <c r="D16">
-        <v>0.02509150775117774</v>
+        <v>0.06343705632257013</v>
       </c>
       <c r="E16">
-        <v>0.2042720205071333</v>
+        <v>0.06710577278577645</v>
       </c>
       <c r="F16">
-        <v>1.313403250653508</v>
+        <v>0.8242684792957675</v>
       </c>
       <c r="G16">
-        <v>1.234517449467432</v>
+        <v>0.6926578547846418</v>
       </c>
       <c r="H16">
-        <v>0.6877917897186308</v>
+        <v>0.1643446288365453</v>
       </c>
       <c r="I16">
-        <v>1.151956587105602</v>
+        <v>0.02388246091058033</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4446702287230124</v>
       </c>
       <c r="K16">
-        <v>6.244812586122464</v>
+        <v>0.6215016867578953</v>
       </c>
       <c r="L16">
-        <v>0.2893102979769395</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>4.342022749143837</v>
       </c>
       <c r="N16">
-        <v>0.6178794875131643</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.4971849251998179</v>
+      </c>
+      <c r="P16">
+        <v>0.8422858569147138</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2418158360280671</v>
+        <v>0.06193451626008795</v>
       </c>
       <c r="D17">
-        <v>0.02506240641697488</v>
+        <v>0.05896161031233049</v>
       </c>
       <c r="E17">
-        <v>0.1961165902364996</v>
+        <v>0.05095489626595295</v>
       </c>
       <c r="F17">
-        <v>1.266312389074301</v>
+        <v>0.831765380169486</v>
       </c>
       <c r="G17">
-        <v>1.18913003822928</v>
+        <v>0.7066803727492754</v>
       </c>
       <c r="H17">
-        <v>0.6701896954444067</v>
+        <v>0.1260831887815215</v>
       </c>
       <c r="I17">
-        <v>1.112632369377764</v>
+        <v>0.02193317027058939</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4549953589241227</v>
       </c>
       <c r="K17">
-        <v>5.976634343380454</v>
+        <v>0.6291462797938721</v>
       </c>
       <c r="L17">
-        <v>0.2775549953825589</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.176282240270552</v>
       </c>
       <c r="N17">
-        <v>0.6279500149392021</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.5512801008971095</v>
+      </c>
+      <c r="P17">
+        <v>0.8196904011829176</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2362228098847083</v>
+        <v>0.05688178146365885</v>
       </c>
       <c r="D18">
-        <v>0.02504761374608577</v>
+        <v>0.05299431202976734</v>
       </c>
       <c r="E18">
-        <v>0.1914606269773174</v>
+        <v>0.0513835142171688</v>
       </c>
       <c r="F18">
-        <v>1.239629184601071</v>
+        <v>0.883814955343027</v>
       </c>
       <c r="G18">
-        <v>1.163449550796031</v>
+        <v>0.7664850443456288</v>
       </c>
       <c r="H18">
-        <v>0.6602852885081347</v>
+        <v>0.07335666284624409</v>
       </c>
       <c r="I18">
-        <v>1.090365768959529</v>
+        <v>0.02103292714737837</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4872166942854506</v>
       </c>
       <c r="K18">
-        <v>5.822936875539597</v>
+        <v>0.6710066559349954</v>
       </c>
       <c r="L18">
-        <v>0.2708516548636624</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>4.105707677612997</v>
       </c>
       <c r="N18">
-        <v>0.6338976735085566</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.6954924553702071</v>
+      </c>
+      <c r="P18">
+        <v>0.7780075450696131</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2343342877945673</v>
+        <v>0.05120014226453407</v>
       </c>
       <c r="D19">
-        <v>0.02504292912104233</v>
+        <v>0.04710393632952758</v>
       </c>
       <c r="E19">
-        <v>0.1898899602657451</v>
+        <v>0.107167397617328</v>
       </c>
       <c r="F19">
-        <v>1.230661512114636</v>
+        <v>0.9647422669435173</v>
       </c>
       <c r="G19">
-        <v>1.154825151501711</v>
+        <v>0.8562055455521289</v>
       </c>
       <c r="H19">
-        <v>0.6569684547290251</v>
+        <v>0.02892751319037501</v>
       </c>
       <c r="I19">
-        <v>1.082885111035949</v>
+        <v>0.02146513158812446</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5331966440827927</v>
       </c>
       <c r="K19">
-        <v>5.770987802903846</v>
+        <v>0.7332745370162499</v>
       </c>
       <c r="L19">
-        <v>0.268591613204535</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>4.107715844214056</v>
       </c>
       <c r="N19">
-        <v>0.6359376061277189</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.9213328378694285</v>
+      </c>
+      <c r="P19">
+        <v>0.7333947840333224</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2428534861843872</v>
+        <v>0.04690202559599754</v>
       </c>
       <c r="D20">
-        <v>0.02506530046346001</v>
+        <v>0.040737783658372</v>
       </c>
       <c r="E20">
-        <v>0.1969810930116651</v>
+        <v>0.3100168484686634</v>
       </c>
       <c r="F20">
-        <v>1.27128311726284</v>
+        <v>1.133473402284622</v>
       </c>
       <c r="G20">
-        <v>1.193917016650289</v>
+        <v>1.03703367236038</v>
       </c>
       <c r="H20">
-        <v>0.6720404429614177</v>
+        <v>0.006010528618175748</v>
       </c>
       <c r="I20">
-        <v>1.116781633285925</v>
+        <v>0.02506266638572541</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.621240650516512</v>
       </c>
       <c r="K20">
-        <v>6.005124214112641</v>
+        <v>0.8612583391578923</v>
       </c>
       <c r="L20">
-        <v>0.2788002766636595</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>4.330277064637812</v>
       </c>
       <c r="N20">
-        <v>0.626861785185568</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.37121586500362</v>
+      </c>
+      <c r="P20">
+        <v>0.6742655280153542</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2718658767688567</v>
+        <v>0.053559563075396</v>
       </c>
       <c r="D21">
-        <v>0.02516452205702535</v>
+        <v>0.04288488859487316</v>
       </c>
       <c r="E21">
-        <v>0.2212392973375543</v>
+        <v>0.368924939321019</v>
       </c>
       <c r="F21">
-        <v>1.412747633041164</v>
+        <v>1.261396702302847</v>
       </c>
       <c r="G21">
-        <v>1.330528992914452</v>
+        <v>1.157909083168221</v>
       </c>
       <c r="H21">
-        <v>0.7253944174561298</v>
+        <v>0.009417641043812486</v>
       </c>
       <c r="I21">
-        <v>1.235022560903161</v>
+        <v>0.03293291603530601</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.6729052843096213</v>
       </c>
       <c r="K21">
-        <v>6.798727081806419</v>
+        <v>0.9530545477793453</v>
       </c>
       <c r="L21">
-        <v>0.3138213091283149</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>4.887070402623408</v>
       </c>
       <c r="N21">
-        <v>0.5982649361615202</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.581474820772613</v>
+      </c>
+      <c r="P21">
+        <v>0.6401256865787097</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2911529427554171</v>
+        <v>0.05919102687942512</v>
       </c>
       <c r="D22">
-        <v>0.02524926905692837</v>
+        <v>0.04442503096302275</v>
       </c>
       <c r="E22">
-        <v>0.2374562914436567</v>
+        <v>0.3948208209702671</v>
       </c>
       <c r="F22">
-        <v>1.50933366074257</v>
+        <v>1.343254145489368</v>
       </c>
       <c r="G22">
-        <v>1.424188991879532</v>
+        <v>1.234708680713993</v>
       </c>
       <c r="H22">
-        <v>0.7624950182818679</v>
+        <v>0.01190168150060827</v>
       </c>
       <c r="I22">
-        <v>1.315905233530472</v>
+        <v>0.03831940523448463</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.7056145785192314</v>
       </c>
       <c r="K22">
-        <v>7.32338708211654</v>
+        <v>1.012727233795886</v>
       </c>
       <c r="L22">
-        <v>0.3373146488632983</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>5.254911339789714</v>
       </c>
       <c r="N22">
-        <v>0.581084886084767</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.699224225650852</v>
+      </c>
+      <c r="P22">
+        <v>0.6197554730542016</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2808268413597546</v>
+        <v>0.05710280216607799</v>
       </c>
       <c r="D23">
-        <v>0.02520208030496818</v>
+        <v>0.04344475593918773</v>
       </c>
       <c r="E23">
-        <v>0.2287650587306729</v>
+        <v>0.3807806616555283</v>
       </c>
       <c r="F23">
-        <v>1.457377648139655</v>
+        <v>1.30289823687896</v>
       </c>
       <c r="G23">
-        <v>1.373770069726191</v>
+        <v>1.197469999936629</v>
       </c>
       <c r="H23">
-        <v>0.7424755627598643</v>
+        <v>0.01055700597567427</v>
       </c>
       <c r="I23">
-        <v>1.272382327969837</v>
+        <v>0.03522293972084167</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.6900231904138536</v>
       </c>
       <c r="K23">
-        <v>7.042761805329405</v>
+        <v>0.9848025017742117</v>
       </c>
       <c r="L23">
-        <v>0.3247158812919935</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>5.064191370698609</v>
       </c>
       <c r="N23">
-        <v>0.590109591080008</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.63722692330677</v>
+      </c>
+      <c r="P23">
+        <v>0.6299036182404016</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.242384275484298</v>
+        <v>0.04775837553823692</v>
       </c>
       <c r="D24">
-        <v>0.02506398605541449</v>
+        <v>0.03997024824009188</v>
       </c>
       <c r="E24">
-        <v>0.1965901500103229</v>
+        <v>0.3283671465702085</v>
       </c>
       <c r="F24">
-        <v>1.269034642283202</v>
+        <v>1.147181104516122</v>
       </c>
       <c r="G24">
-        <v>1.191751542552282</v>
+        <v>1.05270760476337</v>
       </c>
       <c r="H24">
-        <v>0.6712030524028592</v>
+        <v>0.006110447369442329</v>
       </c>
       <c r="I24">
-        <v>1.114904692703476</v>
+        <v>0.02476467449299591</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.629207670706279</v>
       </c>
       <c r="K24">
-        <v>5.992242454489883</v>
+        <v>0.8739622591819725</v>
       </c>
       <c r="L24">
-        <v>0.2782371148182676</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>4.334466416232601</v>
       </c>
       <c r="N24">
-        <v>0.6273532831422415</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.401877742849834</v>
+      </c>
+      <c r="P24">
+        <v>0.6709385441519089</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,42 +1649,48 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2020924108292803</v>
+        <v>0.03781449935236481</v>
       </c>
       <c r="D25">
-        <v>0.02498839624361082</v>
+        <v>0.03616749430599597</v>
       </c>
       <c r="E25">
-        <v>0.1631911969786088</v>
+        <v>0.2725450900810102</v>
       </c>
       <c r="F25">
-        <v>1.08099821822492</v>
+        <v>0.9843722131051607</v>
       </c>
       <c r="G25">
-        <v>1.011395612683714</v>
+        <v>0.9013576835781834</v>
       </c>
       <c r="H25">
-        <v>0.6026029812788352</v>
+        <v>0.002567086972722787</v>
       </c>
       <c r="I25">
-        <v>0.9582637703710191</v>
+        <v>0.01537152501823158</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5662287037127527</v>
       </c>
       <c r="K25">
-        <v>4.87967316145</v>
+        <v>0.7570943086924657</v>
       </c>
       <c r="L25">
-        <v>0.2302786075231751</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>3.550260557091235</v>
       </c>
       <c r="N25">
-        <v>0.6734072926210501</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>1.149497426642952</v>
+      </c>
+      <c r="P25">
+        <v>0.718136041468604</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_51/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03272925586875886</v>
+        <v>0.008013085746798154</v>
       </c>
       <c r="D2">
-        <v>0.03294986989811832</v>
+        <v>0.03918357898931646</v>
       </c>
       <c r="E2">
-        <v>0.2313684486054797</v>
+        <v>0.2380573294577957</v>
       </c>
       <c r="F2">
-        <v>0.876290224990754</v>
+        <v>0.760829036170648</v>
       </c>
       <c r="G2">
-        <v>0.8023981094858499</v>
+        <v>0.6526639548250586</v>
       </c>
       <c r="H2">
-        <v>0.0008798006162944461</v>
+        <v>0.0007218038609901889</v>
       </c>
       <c r="I2">
-        <v>0.009339073458481284</v>
+        <v>0.008345305415128124</v>
       </c>
       <c r="J2">
-        <v>0.5263387044183219</v>
+        <v>0.5052754364929655</v>
       </c>
       <c r="K2">
-        <v>0.6823376383388151</v>
+        <v>0.5493271189688755</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2738935463465353</v>
       </c>
       <c r="M2">
-        <v>2.987264033556784</v>
+        <v>0.1573583659242885</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9664957234755036</v>
+        <v>2.794030445539647</v>
       </c>
       <c r="P2">
-        <v>0.7538786407201066</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.9362489170082426</v>
+      </c>
+      <c r="R2">
+        <v>0.7788905202189085</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02800228036205255</v>
+        <v>0.006727700758114352</v>
       </c>
       <c r="D3">
-        <v>0.03095329687043247</v>
+        <v>0.0358934037302312</v>
       </c>
       <c r="E3">
-        <v>0.2038908075754478</v>
+        <v>0.2101133547982812</v>
       </c>
       <c r="F3">
-        <v>0.8000455170456036</v>
+        <v>0.7017877042716165</v>
       </c>
       <c r="G3">
-        <v>0.7315920638055928</v>
+        <v>0.6016075876574121</v>
       </c>
       <c r="H3">
-        <v>0.0002168106152751204</v>
+        <v>0.0001653384539932468</v>
       </c>
       <c r="I3">
-        <v>0.006169813223098952</v>
+        <v>0.005826097128057484</v>
       </c>
       <c r="J3">
-        <v>0.4975905596722896</v>
+        <v>0.4824239146829541</v>
       </c>
       <c r="K3">
-        <v>0.6270051923279425</v>
+        <v>0.5127479270005111</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2692820960340327</v>
       </c>
       <c r="M3">
-        <v>2.597942438735743</v>
+        <v>0.1348198666310196</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.841488799845159</v>
+        <v>2.438514931198767</v>
       </c>
       <c r="P3">
-        <v>0.7802096536628866</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.8165188159505092</v>
+      </c>
+      <c r="R3">
+        <v>0.7979014278717429</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02505256233218489</v>
+        <v>0.005977193968234928</v>
       </c>
       <c r="D4">
-        <v>0.02971776510059954</v>
+        <v>0.03387810642704281</v>
       </c>
       <c r="E4">
-        <v>0.187072827261801</v>
+        <v>0.1929997605654208</v>
       </c>
       <c r="F4">
-        <v>0.7538478159830788</v>
+        <v>0.6658835069268676</v>
       </c>
       <c r="G4">
-        <v>0.6886323328847226</v>
+        <v>0.5706599665698775</v>
       </c>
       <c r="H4">
-        <v>2.746158211386351E-05</v>
+        <v>1.564518008057014E-05</v>
       </c>
       <c r="I4">
-        <v>0.004533898924637292</v>
+        <v>0.00449933112683043</v>
       </c>
       <c r="J4">
-        <v>0.4802793760263029</v>
+        <v>0.4683951425665356</v>
       </c>
       <c r="K4">
-        <v>0.5932133302507125</v>
+        <v>0.4902245793882187</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2661711878003317</v>
       </c>
       <c r="M4">
-        <v>2.358487265934087</v>
+        <v>0.1217323658571985</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.764739580889966</v>
+        <v>2.219350345218999</v>
       </c>
       <c r="P4">
-        <v>0.7970045446629364</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.7429208577110771</v>
+      </c>
+      <c r="R4">
+        <v>0.8102848313681825</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02361423167471344</v>
+        <v>0.005584658489388161</v>
       </c>
       <c r="D5">
-        <v>0.02924864278372752</v>
+        <v>0.03310160290645214</v>
       </c>
       <c r="E5">
-        <v>0.1802774643138285</v>
+        <v>0.1860824492097919</v>
       </c>
       <c r="F5">
-        <v>0.7343106942992321</v>
+        <v>0.6505761232726002</v>
       </c>
       <c r="G5">
-        <v>0.670288954014751</v>
+        <v>0.5573167896864106</v>
       </c>
       <c r="H5">
-        <v>1.630826904408522E-06</v>
+        <v>5.476379127955511E-08</v>
       </c>
       <c r="I5">
-        <v>0.003989765384159849</v>
+        <v>0.004073860947579</v>
       </c>
       <c r="J5">
-        <v>0.47282397860873</v>
+        <v>0.4622426873639682</v>
       </c>
       <c r="K5">
-        <v>0.5784994307603526</v>
+        <v>0.4801971979123394</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2644675837345645</v>
       </c>
       <c r="M5">
-        <v>2.259426141692529</v>
+        <v>0.116322623196627</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7332455933433621</v>
+        <v>2.128558981704828</v>
       </c>
       <c r="P5">
-        <v>0.8041090629993093</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.7127046140381594</v>
+      </c>
+      <c r="R5">
+        <v>0.8156705202253782</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02310277892615176</v>
+        <v>0.005406461616990654</v>
       </c>
       <c r="D6">
-        <v>0.02921592639297899</v>
+        <v>0.03302647157520866</v>
       </c>
       <c r="E6">
-        <v>0.1792095060612517</v>
+        <v>0.1849943645324146</v>
       </c>
       <c r="F6">
-        <v>0.730034144628668</v>
+        <v>0.6471186317043092</v>
       </c>
       <c r="G6">
-        <v>0.6660861373009936</v>
+        <v>0.5541041099926787</v>
       </c>
       <c r="H6">
-        <v>3.498932641399222E-07</v>
+        <v>1.667992550746789E-07</v>
       </c>
       <c r="I6">
-        <v>0.003972286442404993</v>
+        <v>0.004092974277252637</v>
       </c>
       <c r="J6">
-        <v>0.4710040701676377</v>
+        <v>0.460690804420409</v>
       </c>
       <c r="K6">
-        <v>0.5748590937697813</v>
+        <v>0.4775186814377577</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2637350859777712</v>
       </c>
       <c r="M6">
-        <v>2.241309158602235</v>
+        <v>0.1151146078240579</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7277578360806203</v>
+        <v>2.111943282540096</v>
       </c>
       <c r="P6">
-        <v>0.8054318121337261</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.7074448335719055</v>
+      </c>
+      <c r="R6">
+        <v>0.8167801009930784</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02428423314190553</v>
+        <v>0.005715865934751818</v>
       </c>
       <c r="D7">
-        <v>0.02983583689655234</v>
+        <v>0.03410563589566706</v>
       </c>
       <c r="E7">
-        <v>0.1871452547615036</v>
+        <v>0.1931736562155066</v>
       </c>
       <c r="F7">
-        <v>0.7507357356073499</v>
+        <v>0.6616305714704751</v>
       </c>
       <c r="G7">
-        <v>0.6851992601684174</v>
+        <v>0.5712947222695988</v>
       </c>
       <c r="H7">
-        <v>2.627865554583053E-05</v>
+        <v>1.460016420229415E-05</v>
       </c>
       <c r="I7">
-        <v>0.004696763319508968</v>
+        <v>0.004703876003533836</v>
       </c>
       <c r="J7">
-        <v>0.4785742965021029</v>
+        <v>0.4604847828631762</v>
       </c>
       <c r="K7">
-        <v>0.589730866831438</v>
+        <v>0.4862462381669275</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2644869461547188</v>
       </c>
       <c r="M7">
-        <v>2.352598376204412</v>
+        <v>0.1204113794018866</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.7636083847202357</v>
+        <v>2.211405793976212</v>
       </c>
       <c r="P7">
-        <v>0.7974790834593399</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.7414529491484032</v>
+      </c>
+      <c r="R7">
+        <v>0.811283737088079</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.03009970032096021</v>
+        <v>0.00733420259944495</v>
       </c>
       <c r="D8">
-        <v>0.0324310542274695</v>
+        <v>0.03855728117281032</v>
       </c>
       <c r="E8">
-        <v>0.222098986390364</v>
+        <v>0.2289786228018613</v>
       </c>
       <c r="F8">
-        <v>0.8460688577469</v>
+        <v>0.731972988920262</v>
       </c>
       <c r="G8">
-        <v>0.773623215830014</v>
+        <v>0.6432482206039083</v>
       </c>
       <c r="H8">
-        <v>0.0006001027938891124</v>
+        <v>0.0004810788457305648</v>
       </c>
       <c r="I8">
-        <v>0.008367451544788018</v>
+        <v>0.007649823172631187</v>
       </c>
       <c r="J8">
-        <v>0.514219859033247</v>
+        <v>0.4745099792173022</v>
       </c>
       <c r="K8">
-        <v>0.6588385988240617</v>
+        <v>0.5295033237520101</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.269408567973592</v>
       </c>
       <c r="M8">
-        <v>2.846986140339766</v>
+        <v>0.1469153512275341</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9224370885371513</v>
+        <v>2.657509887814882</v>
       </c>
       <c r="P8">
-        <v>0.7633857225765901</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.8927462476190513</v>
+      </c>
+      <c r="R8">
+        <v>0.787418498479397</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0425395124049146</v>
+        <v>0.01124447157706854</v>
       </c>
       <c r="D9">
-        <v>0.03722117172366168</v>
+        <v>0.04673376954825414</v>
       </c>
       <c r="E9">
-        <v>0.2909741471246434</v>
+        <v>0.2990396905464223</v>
       </c>
       <c r="F9">
-        <v>1.043809142442512</v>
+        <v>0.8832600121461098</v>
       </c>
       <c r="G9">
-        <v>0.9575972450999473</v>
+        <v>0.7800891405685917</v>
       </c>
       <c r="H9">
-        <v>0.003620567637236727</v>
+        <v>0.003059577869379382</v>
       </c>
       <c r="I9">
-        <v>0.01806218577890295</v>
+        <v>0.01506454962064208</v>
       </c>
       <c r="J9">
-        <v>0.5900401470217105</v>
+        <v>0.5274595922044085</v>
       </c>
       <c r="K9">
-        <v>0.8021491958074378</v>
+        <v>0.6228962658179356</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2805529474686779</v>
       </c>
       <c r="M9">
-        <v>3.822636445945534</v>
+        <v>0.2080283451713996</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.235683201280892</v>
+        <v>3.54284219133649</v>
       </c>
       <c r="P9">
-        <v>0.7009824772824231</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.191775165709004</v>
+      </c>
+      <c r="R9">
+        <v>0.7440652207477925</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.05170808096925583</v>
+        <v>0.01492085020070277</v>
       </c>
       <c r="D10">
-        <v>0.04138592328710544</v>
+        <v>0.05418872237881089</v>
       </c>
       <c r="E10">
-        <v>0.3176216651646158</v>
+        <v>0.3263954402522202</v>
       </c>
       <c r="F10">
-        <v>1.178886140283311</v>
+        <v>0.9760566550121723</v>
       </c>
       <c r="G10">
-        <v>1.080277587295029</v>
+        <v>0.891811514272689</v>
       </c>
       <c r="H10">
-        <v>0.007064475556763927</v>
+        <v>0.006011266577430785</v>
       </c>
       <c r="I10">
-        <v>0.02713242954087391</v>
+        <v>0.02184082629599793</v>
       </c>
       <c r="J10">
-        <v>0.6398534979500425</v>
+        <v>0.5244364687433603</v>
       </c>
       <c r="K10">
-        <v>0.8972038014896526</v>
+        <v>0.6765054583303254</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2820337008362586</v>
       </c>
       <c r="M10">
-        <v>4.531616333754982</v>
+        <v>0.2508237881114255</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.424961027141734</v>
+        <v>4.169369619836914</v>
       </c>
       <c r="P10">
-        <v>0.6626753829031387</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.368745325448998</v>
+      </c>
+      <c r="R10">
+        <v>0.7248148471795375</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.05976567440895053</v>
+        <v>0.01979915443366309</v>
       </c>
       <c r="D11">
-        <v>0.04950112074336488</v>
+        <v>0.0661119492354274</v>
       </c>
       <c r="E11">
-        <v>0.1589749529351572</v>
+        <v>0.1626129698712475</v>
       </c>
       <c r="F11">
-        <v>1.122166754080382</v>
+        <v>0.9067386073853214</v>
       </c>
       <c r="G11">
-        <v>1.004621383882508</v>
+        <v>0.8704921053765844</v>
       </c>
       <c r="H11">
-        <v>0.02478710436641407</v>
+        <v>0.02370881822571036</v>
       </c>
       <c r="I11">
-        <v>0.0305219884570711</v>
+        <v>0.02441601452575526</v>
       </c>
       <c r="J11">
-        <v>0.5968572969025843</v>
+        <v>0.4202457883451416</v>
       </c>
       <c r="K11">
-        <v>0.8470146296197782</v>
+        <v>0.62184384053581</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2548827221702155</v>
       </c>
       <c r="M11">
-        <v>4.795068366643193</v>
+        <v>0.2387144930864409</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.168257388908145</v>
+        <v>4.387975267943602</v>
       </c>
       <c r="P11">
-        <v>0.6890471271128149</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.11320950407211</v>
+      </c>
+      <c r="R11">
+        <v>0.7824929868194488</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.06649515807476547</v>
+        <v>0.02437767034793836</v>
       </c>
       <c r="D12">
-        <v>0.05606222707899633</v>
+        <v>0.07483074395003086</v>
       </c>
       <c r="E12">
-        <v>0.07803993952858512</v>
+        <v>0.07643915707524052</v>
       </c>
       <c r="F12">
-        <v>1.05097275965629</v>
+        <v>0.8393689604618544</v>
       </c>
       <c r="G12">
-        <v>0.9218902156460871</v>
+        <v>0.8198960619195219</v>
       </c>
       <c r="H12">
-        <v>0.06256515879412916</v>
+        <v>0.06155544236582955</v>
       </c>
       <c r="I12">
-        <v>0.03120056036638985</v>
+        <v>0.02486297426014961</v>
       </c>
       <c r="J12">
-        <v>0.5532650012175964</v>
+        <v>0.3617470927175219</v>
       </c>
       <c r="K12">
-        <v>0.7906797275138402</v>
+        <v>0.573731827433825</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2353858601297176</v>
       </c>
       <c r="M12">
-        <v>4.874665445184405</v>
+        <v>0.2226792046649138</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.9371073970210801</v>
+        <v>4.456272956475971</v>
       </c>
       <c r="P12">
-        <v>0.7301472617845377</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.8873647744283986</v>
+      </c>
+      <c r="R12">
+        <v>0.8444828618984417</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07129235031689518</v>
+        <v>0.02819981545455619</v>
       </c>
       <c r="D13">
-        <v>0.06191804303197301</v>
+        <v>0.08116457380088349</v>
       </c>
       <c r="E13">
-        <v>0.05153283233618966</v>
+        <v>0.0449355136735291</v>
       </c>
       <c r="F13">
-        <v>0.9599893408858691</v>
+        <v>0.7683947775796156</v>
       </c>
       <c r="G13">
-        <v>0.8239556908505961</v>
+        <v>0.7317654401858817</v>
       </c>
       <c r="H13">
-        <v>0.1172948178467408</v>
+        <v>0.116429442350352</v>
       </c>
       <c r="I13">
-        <v>0.02997141575055107</v>
+        <v>0.02399140804405864</v>
       </c>
       <c r="J13">
-        <v>0.5041423447640767</v>
+        <v>0.3368501467776781</v>
       </c>
       <c r="K13">
-        <v>0.7212125259372542</v>
+        <v>0.5254325260770685</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2192248373257115</v>
       </c>
       <c r="M13">
-        <v>4.809201097787593</v>
+        <v>0.2021092453546913</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.7126795185752428</v>
+        <v>4.412866100695908</v>
       </c>
       <c r="P13">
-        <v>0.7840240491871313</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6717907939276913</v>
+      </c>
+      <c r="R13">
+        <v>0.908275403528009</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07352117863618446</v>
+        <v>0.03040929768467038</v>
       </c>
       <c r="D14">
-        <v>0.06580049354329276</v>
+        <v>0.08453433477128414</v>
       </c>
       <c r="E14">
-        <v>0.06496198695581512</v>
+        <v>0.05539706881141448</v>
       </c>
       <c r="F14">
-        <v>0.8873094758065463</v>
+        <v>0.7162534901997617</v>
       </c>
       <c r="G14">
-        <v>0.748634324126769</v>
+        <v>0.655011670552625</v>
       </c>
       <c r="H14">
-        <v>0.1659282608397206</v>
+        <v>0.1651850241325548</v>
       </c>
       <c r="I14">
-        <v>0.02835372779313516</v>
+        <v>0.02288840236674528</v>
       </c>
       <c r="J14">
-        <v>0.4672477694322481</v>
+        <v>0.331537839824307</v>
       </c>
       <c r="K14">
-        <v>0.6663428842455588</v>
+        <v>0.4906737693399421</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2089195134233037</v>
       </c>
       <c r="M14">
-        <v>4.696557434797114</v>
+        <v>0.1855244517288455</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.5632694423804523</v>
+        <v>4.330437104729015</v>
       </c>
       <c r="P14">
-        <v>0.8285614912182098</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.5296050576331481</v>
+      </c>
+      <c r="R14">
+        <v>0.9537180197376358</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07316277329393728</v>
+        <v>0.03042963052678971</v>
       </c>
       <c r="D15">
-        <v>0.06656129766635388</v>
+        <v>0.08481548291747742</v>
       </c>
       <c r="E15">
-        <v>0.07206029168076711</v>
+        <v>0.06200662935582457</v>
       </c>
       <c r="F15">
-        <v>0.8644567760799191</v>
+        <v>0.7014052252214356</v>
       </c>
       <c r="G15">
-        <v>0.7258974764545485</v>
+        <v>0.6288338279079966</v>
       </c>
       <c r="H15">
-        <v>0.1781741915948771</v>
+        <v>0.1774794747601618</v>
       </c>
       <c r="I15">
-        <v>0.02762861642127312</v>
+        <v>0.02243560804991063</v>
       </c>
       <c r="J15">
-        <v>0.4565355943659029</v>
+        <v>0.3349934892498112</v>
       </c>
       <c r="K15">
-        <v>0.6490627853654942</v>
+        <v>0.4808430835177759</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2065456616095958</v>
       </c>
       <c r="M15">
-        <v>4.636407590130204</v>
+        <v>0.1800948323299636</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.5254225247970581</v>
+        <v>4.284260980198042</v>
       </c>
       <c r="P15">
-        <v>0.8409190896639984</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.4940265477321617</v>
+      </c>
+      <c r="R15">
+        <v>0.963802147906577</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.06748055949141474</v>
+        <v>0.0269237315951969</v>
       </c>
       <c r="D16">
-        <v>0.06343705632257013</v>
+        <v>0.07867669076491524</v>
       </c>
       <c r="E16">
-        <v>0.06710577278577645</v>
+        <v>0.05870178747006349</v>
       </c>
       <c r="F16">
-        <v>0.8242684792957675</v>
+        <v>0.6865416863771827</v>
       </c>
       <c r="G16">
-        <v>0.6926578547846418</v>
+        <v>0.5703057430928169</v>
       </c>
       <c r="H16">
-        <v>0.1643446288365453</v>
+        <v>0.1638423700995588</v>
       </c>
       <c r="I16">
-        <v>0.02388246091058033</v>
+        <v>0.0198236633005795</v>
       </c>
       <c r="J16">
-        <v>0.4446702287230124</v>
+        <v>0.3796354726179487</v>
       </c>
       <c r="K16">
-        <v>0.6215016867578953</v>
+        <v>0.4743231923392557</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2102871727842661</v>
       </c>
       <c r="M16">
-        <v>4.342022749143837</v>
+        <v>0.1694021635295186</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4971849251998179</v>
+        <v>4.045703493675376</v>
       </c>
       <c r="P16">
-        <v>0.8422858569147138</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.4706330271024726</v>
+      </c>
+      <c r="R16">
+        <v>0.9443512274675498</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06193451626008795</v>
+        <v>0.02326136387734579</v>
       </c>
       <c r="D17">
-        <v>0.05896161031233049</v>
+        <v>0.07254181702900553</v>
       </c>
       <c r="E17">
-        <v>0.05095489626595295</v>
+        <v>0.04486317044900279</v>
       </c>
       <c r="F17">
-        <v>0.831765380169486</v>
+        <v>0.7011044187857891</v>
       </c>
       <c r="G17">
-        <v>0.7066803727492754</v>
+        <v>0.5695456212811365</v>
       </c>
       <c r="H17">
-        <v>0.1260831887815215</v>
+        <v>0.1256597084866797</v>
       </c>
       <c r="I17">
-        <v>0.02193317027058939</v>
+        <v>0.0184367099956777</v>
       </c>
       <c r="J17">
-        <v>0.4549953589241227</v>
+        <v>0.4127234660174111</v>
       </c>
       <c r="K17">
-        <v>0.6291462797938721</v>
+        <v>0.4865512638970557</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2184772658668521</v>
       </c>
       <c r="M17">
-        <v>4.176282240270552</v>
+        <v>0.169327235396274</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.5512801008971095</v>
+        <v>3.902193574025262</v>
       </c>
       <c r="P17">
-        <v>0.8196904011829176</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.5247635929282524</v>
+      </c>
+      <c r="R17">
+        <v>0.9083808793549508</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.05688178146365885</v>
+        <v>0.01956958185042268</v>
       </c>
       <c r="D18">
-        <v>0.05299431202976734</v>
+        <v>0.06548412698310813</v>
       </c>
       <c r="E18">
-        <v>0.0513835142171688</v>
+        <v>0.04855749891558236</v>
       </c>
       <c r="F18">
-        <v>0.883814955343027</v>
+        <v>0.7481598139712133</v>
       </c>
       <c r="G18">
-        <v>0.7664850443456288</v>
+        <v>0.6133066352970928</v>
       </c>
       <c r="H18">
-        <v>0.07335666284624409</v>
+        <v>0.07292807008887792</v>
       </c>
       <c r="I18">
-        <v>0.02103292714737837</v>
+        <v>0.0176750525887055</v>
       </c>
       <c r="J18">
-        <v>0.4872166942854506</v>
+        <v>0.4501972323980965</v>
       </c>
       <c r="K18">
-        <v>0.6710066559349954</v>
+        <v>0.5210026780369361</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2332772694544616</v>
       </c>
       <c r="M18">
-        <v>4.105707677612997</v>
+        <v>0.1799663600413126</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.6954924553702071</v>
+        <v>3.833787189831753</v>
       </c>
       <c r="P18">
-        <v>0.7780075450696131</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.6653998714878142</v>
+      </c>
+      <c r="R18">
+        <v>0.8553588704430339</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.05120014226453407</v>
+        <v>0.01574671949898132</v>
       </c>
       <c r="D19">
-        <v>0.04710393632952758</v>
+        <v>0.05885029363847849</v>
       </c>
       <c r="E19">
-        <v>0.107167397617328</v>
+        <v>0.1084456642905494</v>
       </c>
       <c r="F19">
-        <v>0.9647422669435173</v>
+        <v>0.8162639663262894</v>
       </c>
       <c r="G19">
-        <v>0.8562055455521289</v>
+        <v>0.6846118828226508</v>
       </c>
       <c r="H19">
-        <v>0.02892751319037501</v>
+        <v>0.0284086211930088</v>
       </c>
       <c r="I19">
-        <v>0.02146513158812446</v>
+        <v>0.01803314854442029</v>
       </c>
       <c r="J19">
-        <v>0.5331966440827927</v>
+        <v>0.491167437390871</v>
       </c>
       <c r="K19">
-        <v>0.7332745370162499</v>
+        <v>0.5681788508086214</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2513339434777606</v>
       </c>
       <c r="M19">
-        <v>4.107715844214056</v>
+        <v>0.1974007619002762</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9213328378694285</v>
+        <v>3.825124639824821</v>
       </c>
       <c r="P19">
-        <v>0.7333947840333224</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.884938422173974</v>
+      </c>
+      <c r="R19">
+        <v>0.8002985351193175</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.04690202559599754</v>
+        <v>0.0129724943421845</v>
       </c>
       <c r="D20">
-        <v>0.040737783658372</v>
+        <v>0.05240597283565052</v>
       </c>
       <c r="E20">
-        <v>0.3100168484686634</v>
+        <v>0.3182265586082949</v>
       </c>
       <c r="F20">
-        <v>1.133473402284622</v>
+        <v>0.9487454020973018</v>
       </c>
       <c r="G20">
-        <v>1.03703367236038</v>
+        <v>0.8398910573036886</v>
       </c>
       <c r="H20">
-        <v>0.006010528618175748</v>
+        <v>0.005120054601875701</v>
       </c>
       <c r="I20">
-        <v>0.02506266638572541</v>
+        <v>0.02067547474750864</v>
       </c>
       <c r="J20">
-        <v>0.621240650516512</v>
+        <v>0.5425511563103527</v>
       </c>
       <c r="K20">
-        <v>0.8612583391578923</v>
+        <v>0.6574469077191907</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2798817033602035</v>
       </c>
       <c r="M20">
-        <v>4.330277064637812</v>
+        <v>0.2373951237617646</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.37121586500362</v>
+        <v>4.000893151174012</v>
       </c>
       <c r="P20">
-        <v>0.6742655280153542</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.319983785006542</v>
+      </c>
+      <c r="R20">
+        <v>0.730452397110966</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.053559563075396</v>
+        <v>0.01650962959657321</v>
       </c>
       <c r="D21">
-        <v>0.04288488859487316</v>
+        <v>0.05888411130147375</v>
       </c>
       <c r="E21">
-        <v>0.368924939321019</v>
+        <v>0.3808291955443153</v>
       </c>
       <c r="F21">
-        <v>1.261396702302847</v>
+        <v>1.010448431978034</v>
       </c>
       <c r="G21">
-        <v>1.157909083168221</v>
+        <v>1.019783896150642</v>
       </c>
       <c r="H21">
-        <v>0.009417641043812486</v>
+        <v>0.007947238961276137</v>
       </c>
       <c r="I21">
-        <v>0.03293291603530601</v>
+        <v>0.02616927043666362</v>
       </c>
       <c r="J21">
-        <v>0.6729052843096213</v>
+        <v>0.4431060098305721</v>
       </c>
       <c r="K21">
-        <v>0.9530545477793453</v>
+        <v>0.6921056181779051</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2786193126122569</v>
       </c>
       <c r="M21">
-        <v>4.887070402623408</v>
+        <v>0.2685721316561782</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.581474820772613</v>
+        <v>4.439171368691234</v>
       </c>
       <c r="P21">
-        <v>0.6401256865787097</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.510618031365524</v>
+      </c>
+      <c r="R21">
+        <v>0.7178840661290309</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.05919102687942512</v>
+        <v>0.01955020329856794</v>
       </c>
       <c r="D22">
-        <v>0.04442503096302275</v>
+        <v>0.06354087623503091</v>
       </c>
       <c r="E22">
-        <v>0.3948208209702671</v>
+        <v>0.4090388749085321</v>
       </c>
       <c r="F22">
-        <v>1.343254145489368</v>
+        <v>1.046505556610668</v>
       </c>
       <c r="G22">
-        <v>1.234708680713993</v>
+        <v>1.145811966988276</v>
       </c>
       <c r="H22">
-        <v>0.01190168150060827</v>
+        <v>0.009999166910914107</v>
       </c>
       <c r="I22">
-        <v>0.03831940523448463</v>
+        <v>0.02974070999777112</v>
       </c>
       <c r="J22">
-        <v>0.7056145785192314</v>
+        <v>0.3785414210321534</v>
       </c>
       <c r="K22">
-        <v>1.012727233795886</v>
+        <v>0.7126909227567069</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2770296520791575</v>
       </c>
       <c r="M22">
-        <v>5.254911339789714</v>
+        <v>0.2886310818070683</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.699224225650852</v>
+        <v>4.724208757899817</v>
       </c>
       <c r="P22">
-        <v>0.6197554730542016</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.615031060635872</v>
+      </c>
+      <c r="R22">
+        <v>0.7137614915889401</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.05710280216607799</v>
+        <v>0.01810143324600588</v>
       </c>
       <c r="D23">
-        <v>0.04344475593918773</v>
+        <v>0.06055515560865388</v>
       </c>
       <c r="E23">
-        <v>0.3807806616555283</v>
+        <v>0.393439154492512</v>
       </c>
       <c r="F23">
-        <v>1.30289823687896</v>
+        <v>1.034187801100856</v>
       </c>
       <c r="G23">
-        <v>1.197469999936629</v>
+        <v>1.070975173263761</v>
       </c>
       <c r="H23">
-        <v>0.01055700597567427</v>
+        <v>0.008899078514846115</v>
       </c>
       <c r="I23">
-        <v>0.03522293972084167</v>
+        <v>0.02758256380375723</v>
       </c>
       <c r="J23">
-        <v>0.6900231904138536</v>
+        <v>0.4266040464790564</v>
       </c>
       <c r="K23">
-        <v>0.9848025017742117</v>
+        <v>0.7076685637294631</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2799452727067973</v>
       </c>
       <c r="M23">
-        <v>5.064191370698609</v>
+        <v>0.2803330873373326</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.63722692330677</v>
+        <v>4.584313465616219</v>
       </c>
       <c r="P23">
-        <v>0.6299036182404016</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.561247611169847</v>
+      </c>
+      <c r="R23">
+        <v>0.7133768572959767</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.04775837553823692</v>
+        <v>0.01316569218929864</v>
       </c>
       <c r="D24">
-        <v>0.03997024824009188</v>
+        <v>0.05144422237901836</v>
       </c>
       <c r="E24">
-        <v>0.3283671465702085</v>
+        <v>0.3370549469037343</v>
       </c>
       <c r="F24">
-        <v>1.147181104516122</v>
+        <v>0.9606394493553836</v>
       </c>
       <c r="G24">
-        <v>1.05270760476337</v>
+        <v>0.8522692068362971</v>
       </c>
       <c r="H24">
-        <v>0.006110447369442329</v>
+        <v>0.00519991148447474</v>
       </c>
       <c r="I24">
-        <v>0.02476467449299591</v>
+        <v>0.02024991259934694</v>
       </c>
       <c r="J24">
-        <v>0.629207670706279</v>
+        <v>0.5503541517046102</v>
       </c>
       <c r="K24">
-        <v>0.8739622591819725</v>
+        <v>0.6676134874051485</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2837907344070985</v>
       </c>
       <c r="M24">
-        <v>4.334466416232601</v>
+        <v>0.2411477967532036</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.401877742849834</v>
+        <v>4.003930980040138</v>
       </c>
       <c r="P24">
-        <v>0.6709385441519089</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.349865672474934</v>
+      </c>
+      <c r="R24">
+        <v>0.7250937906509876</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.03781449935236481</v>
+        <v>0.009578039981828823</v>
       </c>
       <c r="D25">
-        <v>0.03616749430599597</v>
+        <v>0.04466526636419133</v>
       </c>
       <c r="E25">
-        <v>0.2725450900810102</v>
+        <v>0.2801591240408072</v>
       </c>
       <c r="F25">
-        <v>0.9843722131051607</v>
+        <v>0.8395580142760082</v>
       </c>
       <c r="G25">
-        <v>0.9013576835781834</v>
+        <v>0.732418346131638</v>
       </c>
       <c r="H25">
-        <v>0.002567086972722787</v>
+        <v>0.002159993511686276</v>
       </c>
       <c r="I25">
-        <v>0.01537152501823158</v>
+        <v>0.01320893895412389</v>
       </c>
       <c r="J25">
-        <v>0.5662287037127527</v>
+        <v>0.5195189109901293</v>
       </c>
       <c r="K25">
-        <v>0.7570943086924657</v>
+        <v>0.5942060431431386</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2764589055711539</v>
       </c>
       <c r="M25">
-        <v>3.550260557091235</v>
+        <v>0.1895303588463904</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.149497426642952</v>
+        <v>3.299874309976417</v>
       </c>
       <c r="P25">
-        <v>0.718136041468604</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>1.110221039836858</v>
+      </c>
+      <c r="R25">
+        <v>0.7558114055331941</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
